--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001343133256046131</v>
+        <v>-0.0001343133256046131</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.04372963023775693</v>
+        <v>-0.04372963023775693</v>
       </c>
       <c r="C4">
-        <v>0.0003902561741781662</v>
+        <v>-0.0003902561741781662</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>28004.62292170924</v>
+        <v>-28004.62292170924</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15581.68558096249</v>
+        <v>-15581.68558096249</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>618071.6250536805</v>
+        <v>-618071.6250536805</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11223163.99050737</v>
+        <v>-11223163.99050737</v>
       </c>
       <c r="C4">
-        <v>1795847.632211758</v>
+        <v>-1795847.632211758</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>354760141.4658105</v>
+        <v>-354760141.4658105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>143352028.240214</v>
+        <v>-143352028.240214</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>621289.8907672188</v>
+        <v>-621289.8907672188</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11072964.36400279</v>
+        <v>-11072964.36400279</v>
       </c>
       <c r="C4">
-        <v>1805198.514257158</v>
+        <v>-1805198.514257158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>350402904.9545044</v>
+        <v>-350402904.9545044</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>141496008.4499396</v>
+        <v>-141496008.4499396</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001740023434203162</v>
+        <v>-0.001740023434203162</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.4722752742687177</v>
+        <v>-0.4722752742687177</v>
       </c>
       <c r="C4">
-        <v>0.005055752177646602</v>
+        <v>-0.005055752177646602</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>58953.04157954327</v>
+        <v>-58953.04157954327</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>32799.72182686262</v>
+        <v>-32799.72182686262</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01716180237068238</v>
+        <v>-0.01716180237068238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.970305745195578</v>
+        <v>-3.970305745195578</v>
       </c>
       <c r="C4">
-        <v>0.04986474205024269</v>
+        <v>-0.04986474205024269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>117727.150889386</v>
+        <v>-117727.150889386</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>65487.37761002628</v>
+        <v>-65487.37761002628</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.135252856882146</v>
+        <v>-0.135252856882146</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>27.25015578891642</v>
+        <v>-27.25015578891642</v>
       </c>
       <c r="C4">
-        <v>0.3929860439080696</v>
+        <v>-0.3929860439080696</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>226504.7609492344</v>
+        <v>-226504.7609492344</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>125915.1977505798</v>
+        <v>-125915.1977505798</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8842185599207318</v>
+        <v>-0.8842185599207318</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>158.1742728678765</v>
+        <v>-158.1742728678765</v>
       </c>
       <c r="C4">
-        <v>2.569155002146269</v>
+        <v>-2.569155002146269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>424181.3274655069</v>
+        <v>-424181.3274655069</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>235359.7832748669</v>
+        <v>-235359.7832748669</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.937800716467513</v>
+        <v>-4.937800716467513</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>797.538220835216</v>
+        <v>-797.538220835216</v>
       </c>
       <c r="C4">
-        <v>14.34710374259867</v>
+        <v>-14.34710374259867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>775705.7295230463</v>
+        <v>-775705.7295230463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>428290.5346459976</v>
+        <v>-428290.5346459976</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>24.10750548193617</v>
+        <v>-24.10750548193617</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3566.315843277687</v>
+        <v>-3566.315843277687</v>
       </c>
       <c r="C4">
-        <v>70.04593785470564</v>
+        <v>-70.04593785470564</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1382757.057899104</v>
+        <v>-1382757.057899104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>754521.0416662816</v>
+        <v>-754521.0416662816</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>104.8217655410345</v>
+        <v>-104.8217655410345</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14372.33504125819</v>
+        <v>-14372.33504125819</v>
       </c>
       <c r="C4">
-        <v>304.5665127156963</v>
+        <v>-304.5665127156963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2407055.192465227</v>
+        <v>-2407055.192465227</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1279346.005165993</v>
+        <v>-1279346.005165993</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>411.8526891236128</v>
+        <v>-411.8526891236128</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>52820.34948176749</v>
+        <v>-52820.34948176749</v>
       </c>
       <c r="C4">
-        <v>1196.664992537795</v>
+        <v>-1196.664992537795</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4139438.703852368</v>
+        <v>-4139438.703852368</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2082523.245679768</v>
+        <v>-2082523.245679768</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1477.475234552668</v>
+        <v>-1477.475234552668</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>178125.3368209257</v>
+        <v>-178125.3368209257</v>
       </c>
       <c r="C4">
-        <v>4292.901168845075</v>
+        <v>-4292.901168845075</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7191988.099125134</v>
+        <v>-7191988.099125134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3256275.698069416</v>
+        <v>-3256275.698069416</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4858.826934573591</v>
+        <v>-4858.826934573591</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>548762.3583926293</v>
+        <v>-548762.3583926293</v>
       </c>
       <c r="C4">
-        <v>14117.64024116599</v>
+        <v>-14117.64024116599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12944428.61284237</v>
+        <v>-12944428.61284237</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4901874.039114272</v>
+        <v>-4901874.039114272</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>14520.54611013645</v>
+        <v>-14520.54611013645</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1502790.073592383</v>
+        <v>-1502790.073592383</v>
       </c>
       <c r="C4">
-        <v>42190.39880377197</v>
+        <v>-42190.39880377197</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24156210.87668281</v>
+        <v>-24156210.87668281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7124431.167421066</v>
+        <v>-7124431.167421066</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>38045.5130028237</v>
+        <v>-38045.5130028237</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3403025.514288866</v>
+        <v>-3403025.514288866</v>
       </c>
       <c r="C4">
-        <v>110543.7325916208</v>
+        <v>-110543.7325916208</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>43849604.50410219</v>
+        <v>-43849604.50410219</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10025703.01166392</v>
+        <v>-10025703.01166392</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>80160.24709045762</v>
+        <v>-80160.24709045762</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5645301.715544902</v>
+        <v>-5645301.715544902</v>
       </c>
       <c r="C4">
-        <v>232910.8538551741</v>
+        <v>-232910.8538551741</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>67876403.33875631</v>
+        <v>-67876403.33875631</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13694551.08291591</v>
+        <v>-13694551.08291591</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>116427.5365718997</v>
+        <v>-116427.5365718997</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6651668.745998329</v>
+        <v>-6651668.745998329</v>
       </c>
       <c r="C4">
-        <v>338287.8414111544</v>
+        <v>-338287.8414111544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>84208855.7056305</v>
+        <v>-84208855.7056305</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>18194593.37230613</v>
+        <v>-18194593.37230613</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>99683.86667213582</v>
+        <v>-99683.86667213582</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6955978.861089607</v>
+        <v>-6955978.861089607</v>
       </c>
       <c r="C4">
-        <v>289638.0106712062</v>
+        <v>-289638.0106712062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>95655153.36695886</v>
+        <v>-95655153.36695886</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>23549588.90999591</v>
+        <v>-23549588.90999591</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>58599.58903356336</v>
+        <v>-58599.58903356336</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7588498.833396162</v>
+        <v>-7588498.833396162</v>
       </c>
       <c r="C4">
-        <v>170264.9481851993</v>
+        <v>-170264.9481851993</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>110398187.7084221</v>
+        <v>-110398187.7084221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>29730167.16231326</v>
+        <v>-29730167.16231326</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>66382.36165121727</v>
+        <v>-66382.36165121727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8299159.737548715</v>
+        <v>-8299159.737548715</v>
       </c>
       <c r="C4">
-        <v>192878.3043253431</v>
+        <v>-192878.3043253431</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>128219304.1914997</v>
+        <v>-128219304.1914997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36646672.91223294</v>
+        <v>-36646672.91223294</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>112662.2745174255</v>
+        <v>-112662.2745174255</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9127039.51419474</v>
+        <v>-9127039.51419474</v>
       </c>
       <c r="C4">
-        <v>327347.6256317985</v>
+        <v>-327347.6256317985</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>148879095.0096447</v>
+        <v>-148879095.0096447</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>44146477.28093</v>
+        <v>-44146477.28093</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>163240.482312451</v>
+        <v>-163240.482312451</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9837499.763571132</v>
+        <v>-9837499.763571132</v>
       </c>
       <c r="C4">
-        <v>474305.9246838253</v>
+        <v>-474305.9246838253</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>169463670.8170515</v>
+        <v>-169463670.8170515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>52024734.15310364</v>
+        <v>-52024734.15310364</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6094705337736981</v>
+        <v>-0.6094705337736981</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3391114354435673</v>
+        <v>-0.3391114354435673</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>231124.1602935219</v>
+        <v>-231124.1602935219</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10483774.95336604</v>
+        <v>-10483774.95336604</v>
       </c>
       <c r="C4">
-        <v>671546.4020436194</v>
+        <v>-671546.4020436194</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>190282258.3702261</v>
+        <v>-190282258.3702261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>60061416.81153637</v>
+        <v>-60061416.81153637</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>300315.4592644818</v>
+        <v>-300315.4592644818</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11031501.48702959</v>
+        <v>-11031501.48702959</v>
       </c>
       <c r="C4">
-        <v>872586.2579274132</v>
+        <v>-872586.2579274132</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>210372136.3351434</v>
+        <v>-210372136.3351434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68076387.92088486</v>
+        <v>-68076387.92088486</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>335561.7208543591</v>
+        <v>-335561.7208543591</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10673077.22131134</v>
+        <v>-10673077.22131134</v>
       </c>
       <c r="C4">
-        <v>974996.5819978635</v>
+        <v>-974996.5819978635</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>222842983.9676495</v>
+        <v>-222842983.9676495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>76000045.09965663</v>
+        <v>-76000045.09965663</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>416747.3939839384</v>
+        <v>-416747.3939839384</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10516541.18913207</v>
+        <v>-10516541.18913207</v>
       </c>
       <c r="C4">
-        <v>1210886.878444671</v>
+        <v>-1210886.878444671</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>237966312.327012</v>
+        <v>-237966312.327012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83958280.39213325</v>
+        <v>-83958280.39213325</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>669212.176774297</v>
+        <v>-669212.176774297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10461319.35535069</v>
+        <v>-10461319.35535069</v>
       </c>
       <c r="C4">
-        <v>1944439.858411263</v>
+        <v>-1944439.858411263</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>258782851.0149559</v>
+        <v>-258782851.0149559</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92363640.21910934</v>
+        <v>-92363640.21910934</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1010296.356448707</v>
+        <v>-1010296.356448707</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10280196.20203283</v>
+        <v>-10280196.20203283</v>
       </c>
       <c r="C4">
-        <v>2935482.306606452</v>
+        <v>-2935482.306606452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>283031473.372214</v>
+        <v>-283031473.372214</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101997251.3740284</v>
+        <v>-101997251.3740284</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1353121.238516288</v>
+        <v>-1353121.238516288</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10297863.77508533</v>
+        <v>-10297863.77508533</v>
       </c>
       <c r="C4">
-        <v>3931582.479739088</v>
+        <v>-3931582.479739088</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>313145552.4226654</v>
+        <v>-313145552.4226654</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114061339.6180753</v>
+        <v>-114061339.6180753</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1608826.213842404</v>
+        <v>-1608826.213842404</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9998055.257740799</v>
+        <v>-9998055.257740799</v>
       </c>
       <c r="C4">
-        <v>4674550.051570733</v>
+        <v>-4674550.051570733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>346112121.6729866</v>
+        <v>-346112121.6729866</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>130179498.3471107</v>
+        <v>-130179498.3471107</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1458697.747439024</v>
+        <v>-1458697.747439024</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9564705.264131755</v>
+        <v>-9564705.264131755</v>
       </c>
       <c r="C4">
-        <v>4238341.948837207</v>
+        <v>-4238341.948837207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>379106412.8671716</v>
+        <v>-379106412.8671716</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>152325527.6710647</v>
+        <v>-152325527.6710647</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1364637.985158581</v>
+        <v>-1364637.985158581</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8924447.361117516</v>
+        <v>-8924447.361117516</v>
       </c>
       <c r="C4">
-        <v>3965045.142236413</v>
+        <v>-3965045.142236413</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>426671182.7006434</v>
+        <v>-426671182.7006434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>182665785.9549266</v>
+        <v>-182665785.9549266</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.60434261481414</v>
+        <v>-17.60434261481414</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.79511487977307</v>
+        <v>-9.79511487977307</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1316449.010722838</v>
+        <v>-1316449.010722838</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8514698.298936808</v>
+        <v>-8514698.298936808</v>
       </c>
       <c r="C4">
-        <v>3825028.91736664</v>
+        <v>-3825028.91736664</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>495562464.7479843</v>
+        <v>-495562464.7479843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>223315275.5383807</v>
+        <v>-223315275.5383807</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1168909.292149081</v>
+        <v>-1168909.292149081</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9426641.112787645</v>
+        <v>-9426641.112787645</v>
       </c>
       <c r="C4">
-        <v>3396342.591190677</v>
+        <v>-3396342.591190677</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>593439074.7009424</v>
+        <v>-593439074.7009424</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>276048106.3327709</v>
+        <v>-276048106.3327709</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1007032.537100409</v>
+        <v>-1007032.537100409</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11883446.26973173</v>
+        <v>-11883446.26973173</v>
       </c>
       <c r="C4">
-        <v>2925999.065488405</v>
+        <v>-2925999.065488405</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>726041468.4032407</v>
+        <v>-726041468.4032407</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>342003816.5745845</v>
+        <v>-342003816.5745845</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>922572.7585724046</v>
+        <v>-922572.7585724046</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16881780.3787668</v>
+        <v>-16881780.3787668</v>
       </c>
       <c r="C4">
-        <v>2680595.641130471</v>
+        <v>-2680595.641130471</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>903322901.2093658</v>
+        <v>-903322901.2093658</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>421424871.6935076</v>
+        <v>-421424871.6935076</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1275442.801660679</v>
+        <v>-1275442.801660679</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>24839821.71025551</v>
+        <v>-24839821.71025551</v>
       </c>
       <c r="C4">
-        <v>3705882.688248189</v>
+        <v>-3705882.688248189</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1135515840.232107</v>
+        <v>-1135515840.232107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>513451722.6288582</v>
+        <v>-513451722.6288582</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1898835.383285461</v>
+        <v>-1898835.383285461</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>34948087.99450431</v>
+        <v>-34948087.99450431</v>
       </c>
       <c r="C4">
-        <v>5517190.708660885</v>
+        <v>-5517190.708660885</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1408895583.656452</v>
+        <v>-1408895583.656452</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>615992436.8913577</v>
+        <v>-615992436.8913577</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2601871.865348736</v>
+        <v>-2601871.865348736</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>47223981.39517648</v>
+        <v>-47223981.39517648</v>
       </c>
       <c r="C4">
-        <v>7559909.30387574</v>
+        <v>-7559909.30387574</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1712924198.602876</v>
+        <v>-1712924198.602876</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>725684868.6388779</v>
+        <v>-725684868.6388779</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3740626.895972587</v>
+        <v>-3740626.895972587</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>67484838.04146954</v>
+        <v>-67484838.04146954</v>
       </c>
       <c r="C4">
-        <v>10868636.71105522</v>
+        <v>-10868636.71105522</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2090615176.371388</v>
+        <v>-2090615176.371388</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>837971189.0458661</v>
+        <v>-837971189.0458661</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5023788.230467312</v>
+        <v>-5023788.230467312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>90001269.18341219</v>
+        <v>-90001269.18341219</v>
       </c>
       <c r="C4">
-        <v>14596946.10254022</v>
+        <v>-14596946.10254022</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2483012565.613155</v>
+        <v>-2483012565.613155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>947307933.8513944</v>
+        <v>-947307933.8513944</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5486263.39701573</v>
+        <v>-5486263.39701573</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97841173.8104268</v>
+        <v>-97841173.8104268</v>
       </c>
       <c r="C4">
-        <v>15940698.02244203</v>
+        <v>-15940698.02244203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2731723250.288475</v>
+        <v>-2731723250.288475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1047529538.130144</v>
+        <v>-1047529538.130144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>125.1627767560469</v>
+        <v>-125.1627767560469</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>69.64098596701922</v>
+        <v>-69.64098596701922</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5481913.911981947</v>
+        <v>-5481913.911981947</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97444265.81946647</v>
+        <v>-97444265.81946647</v>
       </c>
       <c r="C4">
-        <v>15928060.30849005</v>
+        <v>-15928060.30849005</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2881176181.240117</v>
+        <v>-2881176181.240117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1132360766.369772</v>
+        <v>-1132360766.369772</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5401163.350250135</v>
+        <v>-5401163.350250135</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>95662368.42342956</v>
+        <v>-95662368.42342956</v>
       </c>
       <c r="C4">
-        <v>15693434.25673877</v>
+        <v>-15693434.25673877</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2980617359.647616</v>
+        <v>-2980617359.647616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1196035513.918652</v>
+        <v>-1196035513.918652</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5234138.101290001</v>
+        <v>-5234138.101290001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>92202735.47962628</v>
+        <v>-92202735.47962628</v>
       </c>
       <c r="C4">
-        <v>15208131.44440115</v>
+        <v>-15208131.44440115</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3019370005.869382</v>
+        <v>-3019370005.869382</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1233938515.459162</v>
+        <v>-1233938515.459162</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5049461.445062113</v>
+        <v>-5049461.445062113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88070919.47132145</v>
+        <v>-88070919.47132145</v>
       </c>
       <c r="C4">
-        <v>14671541.31088251</v>
+        <v>-14671541.31088251</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3001227034.937525</v>
+        <v>-3001227034.937525</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1243160096.755431</v>
+        <v>-1243160096.755431</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4965769.839097154</v>
+        <v>-4965769.839097154</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>85264369.63993797</v>
+        <v>-85264369.63993797</v>
       </c>
       <c r="C4">
-        <v>14428369.86227391</v>
+        <v>-14428369.86227391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2942166687.911922</v>
+        <v>-2942166687.911922</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1222856860.462274</v>
+        <v>-1222856860.462274</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4782172.531912372</v>
+        <v>-4782172.531912372</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80646599.03465021</v>
+        <v>-80646599.03465021</v>
       </c>
       <c r="C4">
-        <v>13894915.8481706</v>
+        <v>-13894915.8481706</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2816735329.140399</v>
+        <v>-2816735329.140399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1174347457.298762</v>
+        <v>-1174347457.298762</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4140161.804159116</v>
+        <v>-4140161.804159116</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>68893299.04305744</v>
+        <v>-68893299.04305744</v>
       </c>
       <c r="C4">
-        <v>12029511.58343009</v>
+        <v>-12029511.58343009</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2583210595.24965</v>
+        <v>-2583210595.24965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1100932906.971676</v>
+        <v>-1100932906.971676</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2783235.035029221</v>
+        <v>-2783235.035029221</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>45886684.1003079</v>
+        <v>-45886684.1003079</v>
       </c>
       <c r="C4">
-        <v>8086871.884972762</v>
+        <v>-8086871.884972762</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2214010997.007765</v>
+        <v>-2214010997.007765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1007493872.589768</v>
+        <v>-1007493872.589768</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1204764.289549927</v>
+        <v>-1204764.289549927</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20088802.08732107</v>
+        <v>-20088802.08732107</v>
       </c>
       <c r="C4">
-        <v>3500521.637073385</v>
+        <v>-3500521.637073385</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1793679164.894532</v>
+        <v>-1793679164.894532</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>899958133.9385678</v>
+        <v>-899958133.9385678</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>553592.3376344302</v>
+        <v>-553592.3376344302</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10716843.97222509</v>
+        <v>-10716843.97222509</v>
       </c>
       <c r="C4">
-        <v>1608498.834847851</v>
+        <v>-1608498.834847851</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1502221126.720673</v>
+        <v>-1502221126.720673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>784734114.4856334</v>
+        <v>-784734114.4856334</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.273451364832704E-11</v>
+        <v>-5.273451364832704E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5969,16 +5969,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.688296646945275E-08</v>
+        <v>-3.688296646945275E-08</v>
       </c>
       <c r="C4">
-        <v>1.532235870931004E-10</v>
+        <v>-1.532235870931004E-10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>524.2381276323806</v>
+        <v>-524.2381276323806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>291.6878405637394</v>
+        <v>-291.6878405637394</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>475950.5396213875</v>
+        <v>-475950.5396213875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10071259.88251323</v>
+        <v>-10071259.88251323</v>
       </c>
       <c r="C4">
-        <v>1382905.49991636</v>
+        <v>-1382905.49991636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1286125653.685445</v>
+        <v>-1286125653.685445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>668173397.1555413</v>
+        <v>-668173397.1555413</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>405169.0131292312</v>
+        <v>-405169.0131292312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9398172.830023054</v>
+        <v>-9398172.830023054</v>
       </c>
       <c r="C4">
-        <v>1177245.133701955</v>
+        <v>-1177245.133701955</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1078032748.219382</v>
+        <v>-1078032748.219382</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>556084906.5772042</v>
+        <v>-556084906.5772042</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>268619.9990105793</v>
+        <v>-268619.9990105793</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7856755.695492686</v>
+        <v>-7856755.695492686</v>
       </c>
       <c r="C4">
-        <v>780493.0199569934</v>
+        <v>-780493.0199569934</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>878720411.0196683</v>
+        <v>-878720411.0196683</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>453304662.9190747</v>
+        <v>-453304662.9190747</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>180691.0443694376</v>
+        <v>-180691.0443694376</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6489511.096083825</v>
+        <v>-6489511.096083825</v>
       </c>
       <c r="C4">
-        <v>525009.6769359724</v>
+        <v>-525009.6769359724</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>704893373.5365806</v>
+        <v>-704893373.5365806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>363340011.8411573</v>
+        <v>-363340011.8411573</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>293239.0470267892</v>
+        <v>-293239.0470267892</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7776442.249367319</v>
+        <v>-7776442.249367319</v>
       </c>
       <c r="C4">
-        <v>852025.2781857675</v>
+        <v>-852025.2781857675</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>581886729.8442867</v>
+        <v>-581886729.8442867</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>288140772.0119517</v>
+        <v>-288140772.0119517</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>534973.3624026063</v>
+        <v>-534973.3624026063</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10419408.37221841</v>
+        <v>-10419408.37221841</v>
       </c>
       <c r="C4">
-        <v>1554400.181505893</v>
+        <v>-1554400.181505893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>499118028.339924</v>
+        <v>-499118028.339924</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>228066481.0691437</v>
+        <v>-228066481.0691437</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>750679.1235842149</v>
+        <v>-750679.1235842149</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13159507.75422844</v>
+        <v>-13159507.75422844</v>
       </c>
       <c r="C4">
-        <v>2181147.4139788</v>
+        <v>-2181147.4139788</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>441768769.8480592</v>
+        <v>-441768769.8480592</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>182090784.6037674</v>
+        <v>-182090784.6037674</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>905198.8504780646</v>
+        <v>-905198.8504780646</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15842344.62860288</v>
+        <v>-15842344.62860288</v>
       </c>
       <c r="C4">
-        <v>2630114.611992827</v>
+        <v>-2630114.611992827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>404262891.8171852</v>
+        <v>-404262891.8171852</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148213703.0383494</v>
+        <v>-148213703.0383494</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>950990.4026639463</v>
+        <v>-950990.4026639463</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16717046.51047716</v>
+        <v>-16717046.51047716</v>
       </c>
       <c r="C4">
-        <v>2763164.969321842</v>
+        <v>-2763164.969321842</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>368216291.5414179</v>
+        <v>-368216291.5414179</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>123977767.932304</v>
+        <v>-123977767.932304</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>733511.4700564339</v>
+        <v>-733511.4700564339</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12781472.12401744</v>
+        <v>-12781472.12401744</v>
       </c>
       <c r="C4">
-        <v>2131265.67100796</v>
+        <v>-2131265.67100796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>303538652.7791266</v>
+        <v>-303538652.7791266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106950067.4235086</v>
+        <v>-106950067.4235086</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.634883236153402E-09</v>
+        <v>-5.634883236153402E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.31445532041979E-06</v>
+        <v>-3.31445532041979E-06</v>
       </c>
       <c r="C4">
-        <v>1.637252270973761E-08</v>
+        <v>-1.637252270973761E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1720.085403172877</v>
+        <v>-1720.085403172877</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>957.0612352172545</v>
+        <v>-957.0612352172545</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>335045.0096275319</v>
+        <v>-335045.0096275319</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5699647.58308741</v>
+        <v>-5699647.58308741</v>
       </c>
       <c r="C4">
-        <v>973495.2436486809</v>
+        <v>-973495.2436486809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>220681676.0168309</v>
+        <v>-220681676.0168309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95060030.375736</v>
+        <v>-95060030.375736</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>73801.27556004685</v>
+        <v>-73801.27556004685</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1159140.498352787</v>
+        <v>-1159140.498352787</v>
       </c>
       <c r="C4">
-        <v>214434.44512957</v>
+        <v>-214434.44512957</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>166191164.8935934</v>
+        <v>-166191164.8935934</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>86753953.05094828</v>
+        <v>-86753953.05094828</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5457.921297122704</v>
+        <v>-5457.921297122704</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>57433.09027312286</v>
+        <v>-57433.09027312286</v>
       </c>
       <c r="C4">
-        <v>15858.34819287271</v>
+        <v>-15858.34819287271</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>146125232.5279343</v>
+        <v>-146125232.5279343</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>80997110.11896358</v>
+        <v>-80997110.11896358</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>263.7904213820615</v>
+        <v>-263.7904213820615</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4267.774216656539</v>
+        <v>-4267.774216656539</v>
       </c>
       <c r="C4">
-        <v>766.4603654923864</v>
+        <v>-766.4603654923864</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>138763464.117952</v>
+        <v>-138763464.117952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>77187517.56025562</v>
+        <v>-77187517.56025562</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>592.0242039029174</v>
+        <v>-592.0242039029174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14987.43888733561</v>
+        <v>-14987.43888733561</v>
       </c>
       <c r="C4">
-        <v>1720.165142185205</v>
+        <v>-1720.165142185205</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>134985585.0113651</v>
+        <v>-134985585.0113651</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>75037411.50950675</v>
+        <v>-75037411.50950675</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2282.694092840307</v>
+        <v>-2282.694092840307</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>56606.30451190157</v>
+        <v>-56606.30451190157</v>
       </c>
       <c r="C4">
-        <v>6632.517358056996</v>
+        <v>-6632.517358056996</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>134279162.548466</v>
+        <v>-134279162.548466</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>74452070.4753222</v>
+        <v>-74452070.4753222</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8062.562109500193</v>
+        <v>-8062.562109500193</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>196071.6561066329</v>
+        <v>-196071.6561066329</v>
       </c>
       <c r="C4">
-        <v>23426.30285389436</v>
+        <v>-23426.30285389436</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>137173814.8725679</v>
+        <v>-137173814.8725679</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>75416772.74566512</v>
+        <v>-75416772.74566512</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>26122.54275204922</v>
+        <v>-26122.54275204922</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>622229.3596988417</v>
+        <v>-622229.3596988417</v>
       </c>
       <c r="C4">
-        <v>75900.76076465023</v>
+        <v>-75900.76076465023</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>145192484.0641985</v>
+        <v>-145192484.0641985</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>77899392.89188547</v>
+        <v>-77899392.89188547</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>76624.65414174389</v>
+        <v>-76624.65414174389</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1775950.801266694</v>
+        <v>-1775950.801266694</v>
       </c>
       <c r="C4">
-        <v>222637.9567215116</v>
+        <v>-222637.9567215116</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>161836039.4252043</v>
+        <v>-161836039.4252043</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81780582.12634</v>
+        <v>-81780582.12634</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>195176.8492054745</v>
+        <v>-195176.8492054745</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4327945.65514197</v>
+        <v>-4327945.65514197</v>
       </c>
       <c r="C4">
-        <v>567099.1326899377</v>
+        <v>-567099.1326899377</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>192451307.6574038</v>
+        <v>-192451307.6574038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>86823880.11552787</v>
+        <v>-86823880.11552787</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.68226116397926E-07</v>
+        <v>-2.68226116397926E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001312383692456791</v>
+        <v>-0.0001312383692456791</v>
       </c>
       <c r="C4">
-        <v>7.793485681998991E-07</v>
+        <v>-7.793485681998991E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4884.180239792895</v>
+        <v>-4884.180239792895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2717.573618957031</v>
+        <v>-2717.573618957031</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>397819.964055623</v>
+        <v>-397819.964055623</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8223024.249998032</v>
+        <v>-8223024.249998032</v>
       </c>
       <c r="C4">
-        <v>1155891.98975735</v>
+        <v>-1155891.98975735</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>236413412.5677587</v>
+        <v>-236413412.5677587</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92690229.29798324</v>
+        <v>-92690229.29798324</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>589304.1411940312</v>
+        <v>-589304.1411940312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11343415.45685831</v>
+        <v>-11343415.45685831</v>
       </c>
       <c r="C4">
-        <v>1712261.821635914</v>
+        <v>-1712261.821635914</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>275211991.3819581</v>
+        <v>-275211991.3819581</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>98989056.12133269</v>
+        <v>-98989056.12133269</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>637116.5868353187</v>
+        <v>-637116.5868353187</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11892491.24760322</v>
+        <v>-11892491.24760322</v>
       </c>
       <c r="C4">
-        <v>1851184.017405218</v>
+        <v>-1851184.017405218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>291815886.84637</v>
+        <v>-291815886.84637</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105346997.59607</v>
+        <v>-105346997.59607</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>641264.7050515485</v>
+        <v>-641264.7050515485</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11655405.14301174</v>
+        <v>-11655405.14301174</v>
       </c>
       <c r="C4">
-        <v>1863236.646865604</v>
+        <v>-1863236.646865604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>301186309.1220168</v>
+        <v>-301186309.1220168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111470430.9298852</v>
+        <v>-111470430.9298852</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>713391.2947980948</v>
+        <v>-713391.2947980948</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12380285.5352065</v>
+        <v>-12380285.5352065</v>
       </c>
       <c r="C4">
-        <v>2072805.182558525</v>
+        <v>-2072805.182558525</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>318502571.4909316</v>
+        <v>-318502571.4909316</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117181095.3241957</v>
+        <v>-117181095.3241957</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>807338.5662741561</v>
+        <v>-807338.5662741561</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13532418.6549348</v>
+        <v>-13532418.6549348</v>
       </c>
       <c r="C4">
-        <v>2345775.13975141</v>
+        <v>-2345775.13975141</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>338617068.5764307</v>
+        <v>-338617068.5764307</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>122414577.9031379</v>
+        <v>-122414577.9031379</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>832030.0993785834</v>
+        <v>-832030.0993785834</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13873859.02832879</v>
+        <v>-13873859.02832879</v>
       </c>
       <c r="C4">
-        <v>2417518.00815669</v>
+        <v>-2417518.00815669</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>350289618.4297601</v>
+        <v>-350289618.4297601</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127185903.2282979</v>
+        <v>-127185903.2282979</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>761239.9741952133</v>
+        <v>-761239.9741952133</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13004889.4511176</v>
+        <v>-13004889.4511176</v>
       </c>
       <c r="C4">
-        <v>2211832.657881166</v>
+        <v>-2211832.657881166</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>350037625.375733</v>
+        <v>-350037625.375733</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>131538686.9702832</v>
+        <v>-131538686.9702832</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>630120.2751038849</v>
+        <v>-630120.2751038849</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11102247.50687689</v>
+        <v>-11102247.50687689</v>
       </c>
       <c r="C4">
-        <v>1830855.774936524</v>
+        <v>-1830855.774936524</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>340053201.6907896</v>
+        <v>-340053201.6907896</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>135499147.365494</v>
+        <v>-135499147.365494</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>481007.7846474968</v>
+        <v>-481007.7846474968</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8596169.44501248</v>
+        <v>-8596169.44501248</v>
       </c>
       <c r="C4">
-        <v>1397599.656932328</v>
+        <v>-1397599.656932328</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>324482588.0659379</v>
+        <v>-324482588.0659379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>139051534.1068925</v>
+        <v>-139051534.1068925</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.408766826815088E-06</v>
+        <v>-7.408766826815088E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.00294820766767485</v>
+        <v>-0.00294820766767485</v>
       </c>
       <c r="C4">
-        <v>2.152665779211161E-05</v>
+        <v>-2.152665779211161E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12313.41702132989</v>
+        <v>-12313.41702132989</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6851.21414566045</v>
+        <v>-6851.21414566045</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>355147.3320788246</v>
+        <v>-355147.3320788246</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6370636.125741586</v>
+        <v>-6370636.125741586</v>
       </c>
       <c r="C4">
-        <v>1031903.859596672</v>
+        <v>-1031903.859596672</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>310695001.2364944</v>
+        <v>-310695001.2364944</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142140092.8904505</v>
+        <v>-142140092.8904505</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>327269.8328865159</v>
+        <v>-327269.8328865159</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5910009.226172975</v>
+        <v>-5910009.226172975</v>
       </c>
       <c r="C4">
-        <v>950903.9578261536</v>
+        <v>-950903.9578261536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>311232713.0632393</v>
+        <v>-311232713.0632393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>144690946.4342958</v>
+        <v>-144690946.4342958</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>398867.9725061835</v>
+        <v>-398867.9725061835</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7213155.035152438</v>
+        <v>-7213155.035152438</v>
       </c>
       <c r="C4">
-        <v>1158937.047026098</v>
+        <v>-1158937.047026098</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>326009272.5820946</v>
+        <v>-326009272.5820946</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>146640496.6844578</v>
+        <v>-146640496.6844578</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>477458.2024200055</v>
+        <v>-477458.2024200055</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8598474.99921304</v>
+        <v>-8598474.99921304</v>
       </c>
       <c r="C4">
-        <v>1387286.11303193</v>
+        <v>-1387286.11303193</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>340419959.2591711</v>
+        <v>-340419959.2591711</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>147957580.8210323</v>
+        <v>-147957580.8210323</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>516551.1091058447</v>
+        <v>-516551.1091058447</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9264407.890750144</v>
+        <v>-9264407.890750144</v>
       </c>
       <c r="C4">
-        <v>1500873.116644889</v>
+        <v>-1500873.116644889</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>347490035.2316063</v>
+        <v>-347490035.2316063</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148652437.4169281</v>
+        <v>-148652437.4169281</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>526920.8772548279</v>
+        <v>-526920.8772548279</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9441866.265965972</v>
+        <v>-9441866.265965972</v>
       </c>
       <c r="C4">
-        <v>1531003.157925006</v>
+        <v>-1531003.157925006</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>349255827.3610216</v>
+        <v>-349255827.3610216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148772453.2451293</v>
+        <v>-148772453.2451293</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>528415.0463798511</v>
+        <v>-528415.0463798511</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9494483.260090511</v>
+        <v>-9494483.260090511</v>
       </c>
       <c r="C4">
-        <v>1535344.564287195</v>
+        <v>-1535344.564287195</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>348988941.4188941</v>
+        <v>-348988941.4188941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148389526.893286</v>
+        <v>-148389526.893286</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>530717.7548676668</v>
+        <v>-530717.7548676668</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9591389.187531784</v>
+        <v>-9591389.187531784</v>
       </c>
       <c r="C4">
-        <v>1542035.234782154</v>
+        <v>-1542035.234782154</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>348308055.0691932</v>
+        <v>-348308055.0691932</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>147584976.1879101</v>
+        <v>-147584976.1879101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>544194.566486474</v>
+        <v>-544194.566486474</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9908514.535620678</v>
+        <v>-9908514.535620678</v>
       </c>
       <c r="C4">
-        <v>1581192.994585958</v>
+        <v>-1581192.994585958</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>348891621.7607154</v>
+        <v>-348891621.7607154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>146436500.7974587</v>
+        <v>-146436500.7974587</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>579808.5452029569</v>
+        <v>-579808.5452029569</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10597746.55013542</v>
+        <v>-10597746.55013542</v>
       </c>
       <c r="C4">
-        <v>1684671.744878176</v>
+        <v>-1684671.744878176</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>352234209.6912798</v>
+        <v>-352234209.6912798</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>145009357.1052046</v>
+        <v>-145009357.1052046</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-350402904.9545044</v>
+        <v>-350402904.9545043</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-84208855.7056305</v>
+        <v>-84208855.70563048</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-379106412.8671716</v>
+        <v>-379106412.8671715</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-495562464.7479843</v>
+        <v>-495562464.7479844</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2731723250.288475</v>
+        <v>-2731723250.288474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2881176181.240117</v>
+        <v>-2881176181.240118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-441768769.8480592</v>
+        <v>-441768769.8480593</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-404262891.8171852</v>
+        <v>-404262891.8171853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-145192484.0641985</v>
+        <v>-145192484.0641986</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-291815886.84637</v>
+        <v>-291815886.8463701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-310695001.2364944</v>
+        <v>-310695001.2364943</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350402904.9545043</v>
+        <v>-350402904.9545044</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-775705.7295230464</v>
+        <v>-775705.7295230463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-84208855.70563048</v>
+        <v>-84208855.7056305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258782851.0149558</v>
+        <v>-258782851.0149559</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-346112121.6729865</v>
+        <v>-346112121.6729866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-379106412.8671715</v>
+        <v>-379106412.8671716</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-726041468.4032406</v>
+        <v>-726041468.4032407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-903322901.209366</v>
+        <v>-903322901.2093658</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3019370005.869383</v>
+        <v>-3019370005.869382</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-878720411.0196685</v>
+        <v>-878720411.0196683</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-704893373.5365804</v>
+        <v>-704893373.5365806</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-404262891.8171853</v>
+        <v>-404262891.8171852</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-145192484.0641986</v>
+        <v>-145192484.0641985</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4884.180239792894</v>
+        <v>-4884.180239792895</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291815886.8463701</v>
+        <v>-291815886.84637</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310695001.2364943</v>
+        <v>-310695001.2364944</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-352234209.6912799</v>
+        <v>-352234209.6912798</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1047,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350402904.9545044</v>
+        <v>-350402904.9545043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1762,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-775705.7295230463</v>
+        <v>-775705.7295230464</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3192,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-84208855.7056305</v>
+        <v>-84208855.70563048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4765,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258782851.0149559</v>
+        <v>-258782851.0149558</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5194,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-346112121.6729866</v>
+        <v>-346112121.6729865</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5337,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-379106412.8671716</v>
+        <v>-379106412.8671715</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6052,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-726041468.4032407</v>
+        <v>-726041468.4032406</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6195,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-903322901.2093658</v>
+        <v>-903322901.209366</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7625,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3019370005.869382</v>
+        <v>-3019370005.869383</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9198,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-878720411.0196683</v>
+        <v>-878720411.0196685</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9341,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-704893373.5365806</v>
+        <v>-704893373.5365804</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9913,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-404262891.8171852</v>
+        <v>-404262891.8171853</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11486,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-145192484.0641985</v>
+        <v>-145192484.0641986</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11915,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4884.180239792895</v>
+        <v>-4884.180239792894</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12344,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291815886.84637</v>
+        <v>-291815886.8463701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13631,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310695001.2364944</v>
+        <v>-310695001.2364943</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14918,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-352234209.6912798</v>
+        <v>-352234209.6912799</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0001343133256046131</v>
+        <v>-1.343133256046131E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.04372963023775693</v>
+        <v>-4.372963023775696E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0003902561741781662</v>
+        <v>-3.902561741781661E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-28004.62292170924</v>
+        <v>-0.02800462292170924</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-15581.68558096249</v>
+        <v>-0.01558168558096249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-618071.6250536805</v>
+        <v>-0.618071625053682</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11223163.99050737</v>
+        <v>-11.22316399050737</v>
       </c>
       <c r="E7">
-        <v>-1795847.632211758</v>
+        <v>-1.795847632211762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-354760141.4658105</v>
+        <v>-354.7601414658102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143352028.240214</v>
+        <v>-143.3520282402139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-621289.8907672188</v>
+        <v>-0.6212898907672202</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11072964.36400279</v>
+        <v>-11.07296436400275</v>
       </c>
       <c r="E7">
-        <v>-1805198.514257158</v>
+        <v>-1.805198514257163</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350402904.9545043</v>
+        <v>-350.4029049545038</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141496008.4499396</v>
+        <v>-141.4960084499395</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001740023434203162</v>
+        <v>-1.740023434203161E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4722752742687177</v>
+        <v>-4.722752742687179E-07</v>
       </c>
       <c r="E7">
-        <v>-0.005055752177646602</v>
+        <v>-5.0557521776466E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-58953.04157954327</v>
+        <v>-0.05895304157954327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-32799.72182686262</v>
+        <v>-0.03279972182686263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01716180237068238</v>
+        <v>-1.716180237068238E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.970305745195578</v>
+        <v>-3.970305745195579E-06</v>
       </c>
       <c r="E7">
-        <v>-0.04986474205024269</v>
+        <v>-4.986474205024268E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-117727.150889386</v>
+        <v>-0.117727150889386</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-65487.37761002628</v>
+        <v>-0.06548737761002629</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.135252856882146</v>
+        <v>-1.35252856882146E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-27.25015578891642</v>
+        <v>-2.725015578891643E-05</v>
       </c>
       <c r="E7">
-        <v>-0.3929860439080696</v>
+        <v>-3.929860439080696E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226504.7609492344</v>
+        <v>-0.2265047609492344</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125915.1977505798</v>
+        <v>-0.1259151977505798</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8842185599207318</v>
+        <v>-8.842185599207318E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-158.1742728678765</v>
+        <v>-0.0001581742728678765</v>
       </c>
       <c r="E7">
-        <v>-2.569155002146269</v>
+        <v>-2.569155002146269E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-424181.3274655069</v>
+        <v>-0.4241813274655068</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-235359.7832748669</v>
+        <v>-0.2353597832748668</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.937800716467513</v>
+        <v>-4.937800716467512E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-797.538220835216</v>
+        <v>-0.0007975382208352163</v>
       </c>
       <c r="E7">
-        <v>-14.34710374259867</v>
+        <v>-1.434710374259867E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-775705.7295230464</v>
+        <v>-0.7757057295230462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-428290.5346459976</v>
+        <v>-0.4282905346459978</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-24.10750548193617</v>
+        <v>-2.410750548193616E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3566.315843277687</v>
+        <v>-0.003566315843277688</v>
       </c>
       <c r="E7">
-        <v>-70.04593785470564</v>
+        <v>-7.004593785470565E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1382757.057899104</v>
+        <v>-1.382757057899104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-754521.0416662816</v>
+        <v>-0.7545210416662816</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-104.8217655410345</v>
+        <v>-0.0001048217655410345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14372.33504125819</v>
+        <v>-0.01437233504125819</v>
       </c>
       <c r="E7">
-        <v>-304.5665127156963</v>
+        <v>-0.0003045665127156963</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2407055.192465227</v>
+        <v>-2.407055192465227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1279346.005165993</v>
+        <v>-1.279346005165993</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-411.8526891236128</v>
+        <v>-0.0004118526891236127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-52820.34948176749</v>
+        <v>-0.0528203494817675</v>
       </c>
       <c r="E7">
-        <v>-1196.664992537795</v>
+        <v>-0.001196664992537794</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4139438.703852368</v>
+        <v>-4.139438703852369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2082523.245679768</v>
+        <v>-2.082523245679769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1477.475234552668</v>
+        <v>-0.001477475234552668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-178125.3368209257</v>
+        <v>-0.1781253368209257</v>
       </c>
       <c r="E7">
-        <v>-4292.901168845075</v>
+        <v>-0.004292901168845075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7191988.099125134</v>
+        <v>-7.191988099125134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3256275.698069416</v>
+        <v>-3.256275698069417</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4858.826934573591</v>
+        <v>-0.00485882693457359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-548762.3583926293</v>
+        <v>-0.5487623583926293</v>
       </c>
       <c r="E7">
-        <v>-14117.64024116599</v>
+        <v>-0.01411764024116599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-12944428.61284237</v>
+        <v>-12.94442861284238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4901874.039114272</v>
+        <v>-4.901874039114273</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-14520.54611013645</v>
+        <v>-0.01452054611013645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1502790.073592383</v>
+        <v>-1.502790073592384</v>
       </c>
       <c r="E7">
-        <v>-42190.39880377197</v>
+        <v>-0.04219039880377196</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-24156210.87668281</v>
+        <v>-24.15621087668281</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7124431.167421066</v>
+        <v>-7.124431167421067</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-38045.5130028237</v>
+        <v>-0.03804551300282369</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3403025.514288866</v>
+        <v>-3.403025514288867</v>
       </c>
       <c r="E7">
-        <v>-110543.7325916208</v>
+        <v>-0.1105437325916208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-43849604.50410219</v>
+        <v>-43.84960450410218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10025703.01166392</v>
+        <v>-10.02570301166392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-80160.24709045762</v>
+        <v>-0.0801602470904576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5645301.715544902</v>
+        <v>-5.645301715544901</v>
       </c>
       <c r="E7">
-        <v>-232910.8538551741</v>
+        <v>-0.2329108538551741</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-67876403.33875631</v>
+        <v>-67.87640333875629</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13694551.08291591</v>
+        <v>-13.69455108291591</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-116427.5365718997</v>
+        <v>-0.1164275365718997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6651668.745998329</v>
+        <v>-6.651668745998327</v>
       </c>
       <c r="E7">
-        <v>-338287.8414111544</v>
+        <v>-0.3382878414111543</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-84208855.70563048</v>
+        <v>-84.20885570563046</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-18194593.37230613</v>
+        <v>-18.19459337230613</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-99683.86667213582</v>
+        <v>-0.09968386667213577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6955978.861089607</v>
+        <v>-6.955978861089603</v>
       </c>
       <c r="E7">
-        <v>-289638.0106712062</v>
+        <v>-0.2896380106712061</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-95655153.36695886</v>
+        <v>-95.65515336695881</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-23549588.90999591</v>
+        <v>-23.5495889099959</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-58599.58903356336</v>
+        <v>-0.05859958903356335</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7588498.833396162</v>
+        <v>-7.588498833396164</v>
       </c>
       <c r="E7">
-        <v>-170264.9481851993</v>
+        <v>-0.1702649481851993</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-110398187.7084221</v>
+        <v>-110.3981877084221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-29730167.16231326</v>
+        <v>-29.73016716231326</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-66382.36165121727</v>
+        <v>-0.06638236165121729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8299159.737548715</v>
+        <v>-8.299159737548717</v>
       </c>
       <c r="E7">
-        <v>-192878.3043253431</v>
+        <v>-0.1928783043253431</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-128219304.1914997</v>
+        <v>-128.2193041914997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36646672.91223294</v>
+        <v>-36.64667291223294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-112662.2745174255</v>
+        <v>-0.1126622745174255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9127039.51419474</v>
+        <v>-9.127039514194745</v>
       </c>
       <c r="E7">
-        <v>-327347.6256317985</v>
+        <v>-0.3273476256317986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-148879095.0096447</v>
+        <v>-148.8790950096448</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-44146477.28093</v>
+        <v>-44.14647728093001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-163240.482312451</v>
+        <v>-0.163240482312451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9837499.763571132</v>
+        <v>-9.837499763571135</v>
       </c>
       <c r="E7">
-        <v>-474305.9246838253</v>
+        <v>-0.4743059246838253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-169463670.8170515</v>
+        <v>-169.4636708170515</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52024734.15310364</v>
+        <v>-52.02473415310364</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.6094705337736981</v>
+        <v>-6.09470533773698E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3391114354435673</v>
+        <v>-3.391114354435672E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-231124.1602935219</v>
+        <v>-0.231124160293522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10483774.95336604</v>
+        <v>-10.48377495336604</v>
       </c>
       <c r="E7">
-        <v>-671546.4020436194</v>
+        <v>-0.6715464020436195</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-190282258.3702261</v>
+        <v>-190.2822583702261</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60061416.81153637</v>
+        <v>-60.06141681153636</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-300315.4592644818</v>
+        <v>-0.3003154592644819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11031501.48702959</v>
+        <v>-11.03150148702959</v>
       </c>
       <c r="E7">
-        <v>-872586.2579274132</v>
+        <v>-0.8725862579274135</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-210372136.3351434</v>
+        <v>-210.3721363351435</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68076387.92088486</v>
+        <v>-68.07638792088487</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-335561.7208543591</v>
+        <v>-0.3355617208543591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10673077.22131134</v>
+        <v>-10.67307722131135</v>
       </c>
       <c r="E7">
-        <v>-974996.5819978635</v>
+        <v>-0.9749965819978637</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-222842983.9676495</v>
+        <v>-222.8429839676496</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-76000045.09965663</v>
+        <v>-76.00004509965659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-416747.3939839384</v>
+        <v>-0.4167473939839385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10516541.18913207</v>
+        <v>-10.51654118913208</v>
       </c>
       <c r="E7">
-        <v>-1210886.878444671</v>
+        <v>-1.210886878444671</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-237966312.327012</v>
+        <v>-237.9663123270121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83958280.39213325</v>
+        <v>-83.95828039213329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-669212.176774297</v>
+        <v>-0.669212176774297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10461319.35535069</v>
+        <v>-10.46131935535069</v>
       </c>
       <c r="E7">
-        <v>-1944439.858411263</v>
+        <v>-1.944439858411263</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258782851.0149558</v>
+        <v>-258.7828510149558</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92363640.21910934</v>
+        <v>-92.36364021910934</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1010296.356448707</v>
+        <v>-1.010296356448707</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10280196.20203283</v>
+        <v>-10.28019620203283</v>
       </c>
       <c r="E7">
-        <v>-2935482.306606452</v>
+        <v>-2.935482306606453</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283031473.372214</v>
+        <v>-283.031473372214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101997251.3740284</v>
+        <v>-101.9972513740284</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1353121.238516288</v>
+        <v>-1.353121238516288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10297863.77508533</v>
+        <v>-10.29786377508533</v>
       </c>
       <c r="E7">
-        <v>-3931582.479739088</v>
+        <v>-3.931582479739087</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-313145552.4226654</v>
+        <v>-313.1455524226653</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114061339.6180753</v>
+        <v>-114.0613396180753</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1608826.213842404</v>
+        <v>-1.608826213842404</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9998055.257740799</v>
+        <v>-9.998055257740802</v>
       </c>
       <c r="E7">
-        <v>-4674550.051570733</v>
+        <v>-4.674550051570733</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-346112121.6729865</v>
+        <v>-346.1121216729867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130179498.3471107</v>
+        <v>-130.1794983471108</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1458697.747439024</v>
+        <v>-1.458697747439023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9564705.264131755</v>
+        <v>-9.564705264131748</v>
       </c>
       <c r="E7">
-        <v>-4238341.948837207</v>
+        <v>-4.238341948837204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-379106412.8671715</v>
+        <v>-379.1064128671715</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-152325527.6710647</v>
+        <v>-152.3255276710647</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1364637.985158581</v>
+        <v>-1.364637985158581</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8924447.361117516</v>
+        <v>-8.924447361117505</v>
       </c>
       <c r="E7">
-        <v>-3965045.142236413</v>
+        <v>-3.965045142236412</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426671182.7006434</v>
+        <v>-426.6711827006433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182665785.9549266</v>
+        <v>-182.6657859549265</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-17.60434261481414</v>
+        <v>-1.760434261481413E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9.79511487977307</v>
+        <v>-9.795114879773063E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1316449.010722838</v>
+        <v>-1.316449010722838</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8514698.298936808</v>
+        <v>-8.514698298936803</v>
       </c>
       <c r="E7">
-        <v>-3825028.91736664</v>
+        <v>-3.825028917366641</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-495562464.7479843</v>
+        <v>-495.5624647479842</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-223315275.5383807</v>
+        <v>-223.3152755383806</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1168909.292149081</v>
+        <v>-1.168909292149082</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9426641.112787645</v>
+        <v>-9.426641112787639</v>
       </c>
       <c r="E7">
-        <v>-3396342.591190677</v>
+        <v>-3.39634259119068</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593439074.7009424</v>
+        <v>-593.4390747009426</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-276048106.3327709</v>
+        <v>-276.0481063327711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1007032.537100409</v>
+        <v>-1.00703253710041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11883446.26973173</v>
+        <v>-11.88344626973173</v>
       </c>
       <c r="E7">
-        <v>-2925999.065488405</v>
+        <v>-2.925999065488406</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-726041468.4032406</v>
+        <v>-726.041468403241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-342003816.5745845</v>
+        <v>-342.0038165745847</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-922572.7585724046</v>
+        <v>-0.9225727585724044</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16881780.3787668</v>
+        <v>-16.88178037876679</v>
       </c>
       <c r="E7">
-        <v>-2680595.641130471</v>
+        <v>-2.68059564113047</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-903322901.209366</v>
+        <v>-903.3229012093659</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-421424871.6935076</v>
+        <v>-421.4248716935076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1275442.801660679</v>
+        <v>-1.275442801660678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-24839821.71025551</v>
+        <v>-24.83982171025552</v>
       </c>
       <c r="E7">
-        <v>-3705882.688248189</v>
+        <v>-3.705882688248189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1135515840.232107</v>
+        <v>-1135.515840232107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-513451722.6288582</v>
+        <v>-513.4517226288583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1898835.383285461</v>
+        <v>-1.89883538328546</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-34948087.99450431</v>
+        <v>-34.94808799450432</v>
       </c>
       <c r="E7">
-        <v>-5517190.708660885</v>
+        <v>-5.517190708660882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1408895583.656452</v>
+        <v>-1408.895583656451</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-615992436.8913577</v>
+        <v>-615.9924368913571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2601871.865348736</v>
+        <v>-2.601871865348735</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-47223981.39517648</v>
+        <v>-47.22398139517648</v>
       </c>
       <c r="E7">
-        <v>-7559909.30387574</v>
+        <v>-7.559909303875739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1712924198.602876</v>
+        <v>-1712.924198602875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-725684868.6388779</v>
+        <v>-725.6848686388774</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3740626.895972587</v>
+        <v>-3.740626895972587</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-67484838.04146954</v>
+        <v>-67.4848380414695</v>
       </c>
       <c r="E7">
-        <v>-10868636.71105522</v>
+        <v>-10.86863671105522</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2090615176.371388</v>
+        <v>-2090.615176371387</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-837971189.0458661</v>
+        <v>-837.9711890458658</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5023788.230467312</v>
+        <v>-5.023788230467312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-90001269.18341219</v>
+        <v>-90.00126918341221</v>
       </c>
       <c r="E7">
-        <v>-14596946.10254022</v>
+        <v>-14.59694610254022</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2483012565.613155</v>
+        <v>-2483.012565613155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-947307933.8513944</v>
+        <v>-947.3079338513945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5486263.39701573</v>
+        <v>-5.486263397015731</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97841173.8104268</v>
+        <v>-97.84117381042681</v>
       </c>
       <c r="E7">
-        <v>-15940698.02244203</v>
+        <v>-15.94069802244203</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2731723250.288475</v>
+        <v>-2731.723250288474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1047529538.130144</v>
+        <v>-1047.529538130143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-125.1627767560469</v>
+        <v>-0.0001251627767560469</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-69.64098596701922</v>
+        <v>-6.96409859670192E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5481913.911981947</v>
+        <v>-5.481913911981946</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97444265.81946647</v>
+        <v>-97.44426581946647</v>
       </c>
       <c r="E7">
-        <v>-15928060.30849005</v>
+        <v>-15.92806030849005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2881176181.240117</v>
+        <v>-2881.176181240118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1132360766.369772</v>
+        <v>-1132.360766369772</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5401163.350250135</v>
+        <v>-5.401163350250136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-95662368.42342956</v>
+        <v>-95.66236842342961</v>
       </c>
       <c r="E7">
-        <v>-15693434.25673877</v>
+        <v>-15.69343425673877</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2980617359.647616</v>
+        <v>-2980.617359647617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1196035513.918652</v>
+        <v>-1196.035513918652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5234138.101290001</v>
+        <v>-5.234138101290002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-92202735.47962628</v>
+        <v>-92.2027354796263</v>
       </c>
       <c r="E7">
-        <v>-15208131.44440115</v>
+        <v>-15.20813144440115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3019370005.869383</v>
+        <v>-3019.370005869383</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1233938515.459162</v>
+        <v>-1233.938515459163</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5049461.445062113</v>
+        <v>-5.049461445062114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88070919.47132145</v>
+        <v>-88.07091947132147</v>
       </c>
       <c r="E7">
-        <v>-14671541.31088251</v>
+        <v>-14.67154131088251</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3001227034.937525</v>
+        <v>-3001.227034937526</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1243160096.755431</v>
+        <v>-1243.160096755431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4965769.839097154</v>
+        <v>-4.965769839097157</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85264369.63993797</v>
+        <v>-85.26436963993798</v>
       </c>
       <c r="E7">
-        <v>-14428369.86227391</v>
+        <v>-14.42836986227392</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2942166687.911922</v>
+        <v>-2942.166687911923</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1222856860.462274</v>
+        <v>-1222.856860462274</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4782172.531912372</v>
+        <v>-4.782172531912372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80646599.03465021</v>
+        <v>-80.64659903465022</v>
       </c>
       <c r="E7">
-        <v>-13894915.8481706</v>
+        <v>-13.8949158481706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2816735329.140399</v>
+        <v>-2816.735329140398</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1174347457.298762</v>
+        <v>-1174.347457298762</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4140161.804159116</v>
+        <v>-4.140161804159114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-68893299.04305744</v>
+        <v>-68.89329904305747</v>
       </c>
       <c r="E7">
-        <v>-12029511.58343009</v>
+        <v>-12.02951158343008</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2583210595.24965</v>
+        <v>-2583.21059524965</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1100932906.971676</v>
+        <v>-1100.932906971676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2783235.035029221</v>
+        <v>-2.783235035029221</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-45886684.1003079</v>
+        <v>-45.88668410030787</v>
       </c>
       <c r="E7">
-        <v>-8086871.884972762</v>
+        <v>-8.086871884972762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2214010997.007765</v>
+        <v>-2214.010997007765</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1007493872.589768</v>
+        <v>-1007.493872589768</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1204764.289549927</v>
+        <v>-1.204764289549926</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20088802.08732107</v>
+        <v>-20.08880208732106</v>
       </c>
       <c r="E7">
-        <v>-3500521.637073385</v>
+        <v>-3.500521637073383</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1793679164.894532</v>
+        <v>-1793.679164894532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-899958133.9385678</v>
+        <v>-899.9581339385679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-553592.3376344302</v>
+        <v>-0.5535923376344312</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10716843.97222509</v>
+        <v>-10.71684397222509</v>
       </c>
       <c r="E7">
-        <v>-1608498.834847851</v>
+        <v>-1.608498834847854</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1502221126.720673</v>
+        <v>-1502.221126720673</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-784734114.4856334</v>
+        <v>-784.7341144856334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.273451364832704E-11</v>
+        <v>-5.273451364832701E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8470,16 +8470,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.688296646945275E-08</v>
+        <v>-3.688296646945278E-14</v>
       </c>
       <c r="E7">
-        <v>-1.532235870931004E-10</v>
+        <v>-1.532235870931004E-16</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-524.2381276323806</v>
+        <v>-0.0005242381276323807</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-291.6878405637394</v>
+        <v>-0.0002916878405637394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-475950.5396213875</v>
+        <v>-0.4759505396213873</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10071259.88251323</v>
+        <v>-10.07125988251325</v>
       </c>
       <c r="E7">
-        <v>-1382905.49991636</v>
+        <v>-1.38290549991636</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1286125653.685445</v>
+        <v>-1286.125653685445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-668173397.1555413</v>
+        <v>-668.1733971555414</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-405169.0131292312</v>
+        <v>-0.4051690131292323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9398172.830023054</v>
+        <v>-9.398172830023061</v>
       </c>
       <c r="E7">
-        <v>-1177245.133701955</v>
+        <v>-1.177245133701958</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1078032748.219382</v>
+        <v>-1078.032748219382</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-556084906.5772042</v>
+        <v>-556.0849065772043</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-268619.9990105793</v>
+        <v>-0.2686199990105808</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7856755.695492686</v>
+        <v>-7.856755695492683</v>
       </c>
       <c r="E7">
-        <v>-780493.0199569934</v>
+        <v>-0.7804930199569977</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-878720411.0196685</v>
+        <v>-878.7204110196686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-453304662.9190747</v>
+        <v>-453.304662919075</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-180691.0443694376</v>
+        <v>-0.1806910443694366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6489511.096083825</v>
+        <v>-6.489511096083875</v>
       </c>
       <c r="E7">
-        <v>-525009.6769359724</v>
+        <v>-0.5250096769359693</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-704893373.5365804</v>
+        <v>-704.8933735365806</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-363340011.8411573</v>
+        <v>-363.3400118411571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-293239.0470267892</v>
+        <v>-0.2932390470267853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7776442.249367319</v>
+        <v>-7.77644224936734</v>
       </c>
       <c r="E7">
-        <v>-852025.2781857675</v>
+        <v>-0.8520252781857565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-581886729.8442867</v>
+        <v>-581.8867298442866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-288140772.0119517</v>
+        <v>-288.1407720119517</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-534973.3624026063</v>
+        <v>-0.5349733624026006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10419408.37221841</v>
+        <v>-10.41940837221838</v>
       </c>
       <c r="E7">
-        <v>-1554400.181505893</v>
+        <v>-1.554400181505877</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-499118028.339924</v>
+        <v>-499.1180283399241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-228066481.0691437</v>
+        <v>-228.0664810691439</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-750679.1235842149</v>
+        <v>-0.7506791235842114</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13159507.75422844</v>
+        <v>-13.15950775422845</v>
       </c>
       <c r="E7">
-        <v>-2181147.4139788</v>
+        <v>-2.18114741397879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-441768769.8480592</v>
+        <v>-441.7687698480594</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182090784.6037674</v>
+        <v>-182.0907846037675</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-905198.8504780646</v>
+        <v>-0.9051988504780638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15842344.62860288</v>
+        <v>-15.84234462860288</v>
       </c>
       <c r="E7">
-        <v>-2630114.611992827</v>
+        <v>-2.630114611992825</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-404262891.8171853</v>
+        <v>-404.2628918171854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148213703.0383494</v>
+        <v>-148.2137030383495</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-950990.4026639463</v>
+        <v>-0.9509904026639443</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16717046.51047716</v>
+        <v>-16.71704651047711</v>
       </c>
       <c r="E7">
-        <v>-2763164.969321842</v>
+        <v>-2.763164969321836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-368216291.5414179</v>
+        <v>-368.2162915414178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123977767.932304</v>
+        <v>-123.9777679323042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-733511.4700564339</v>
+        <v>-0.7335114700564329</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12781472.12401744</v>
+        <v>-12.78147212401743</v>
       </c>
       <c r="E7">
-        <v>-2131265.67100796</v>
+        <v>-2.131265671007957</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-303538652.7791266</v>
+        <v>-303.5386527791267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106950067.4235086</v>
+        <v>-106.9500674235087</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.634883236153402E-09</v>
+        <v>-5.6348832361534E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.31445532041979E-06</v>
+        <v>-3.314455320419792E-12</v>
       </c>
       <c r="E7">
-        <v>-1.637252270973761E-08</v>
+        <v>-1.637252270973761E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1720.085403172877</v>
+        <v>-0.001720085403172877</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-957.0612352172545</v>
+        <v>-0.0009570612352172546</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-335045.0096275319</v>
+        <v>-0.3350450096275313</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5699647.58308741</v>
+        <v>-5.699647583087429</v>
       </c>
       <c r="E7">
-        <v>-973495.2436486809</v>
+        <v>-0.9734952436486788</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220681676.0168309</v>
+        <v>-220.6816760168313</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95060030.375736</v>
+        <v>-95.06003037573619</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-73801.27556004685</v>
+        <v>-0.07380127556004543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1159140.498352787</v>
+        <v>-1.159140498352817</v>
       </c>
       <c r="E7">
-        <v>-214434.44512957</v>
+        <v>-0.2144344451295659</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-166191164.8935934</v>
+        <v>-166.1911648935938</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86753953.05094828</v>
+        <v>-86.7539530509484</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5457.921297122704</v>
+        <v>-0.005457921297122058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-57433.09027312286</v>
+        <v>-0.05743309027313547</v>
       </c>
       <c r="E7">
-        <v>-15858.34819287271</v>
+        <v>-0.01585834819287083</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146125232.5279343</v>
+        <v>-146.1252325279346</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-80997110.11896358</v>
+        <v>-80.99711011896369</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-263.7904213820615</v>
+        <v>-0.0002637904213820349</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4267.774216656539</v>
+        <v>-0.004267774216657092</v>
       </c>
       <c r="E7">
-        <v>-766.4603654923864</v>
+        <v>-0.0007664603654923088</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138763464.117952</v>
+        <v>-138.7634641179521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77187517.56025562</v>
+        <v>-77.1875175602557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-592.0242039029174</v>
+        <v>-0.0005920242039029196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14987.43888733561</v>
+        <v>-0.01498743888733571</v>
       </c>
       <c r="E7">
-        <v>-1720.165142185205</v>
+        <v>-0.001720165142185212</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-134985585.0113651</v>
+        <v>-134.9855850113652</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75037411.50950675</v>
+        <v>-75.03741150950678</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2282.694092840307</v>
+        <v>-0.002282694092840318</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56606.30451190157</v>
+        <v>-0.05660630451190192</v>
       </c>
       <c r="E7">
-        <v>-6632.517358056996</v>
+        <v>-0.006632517358057029</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-134279162.548466</v>
+        <v>-134.279162548466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74452070.4753222</v>
+        <v>-74.4520704753222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-8062.562109500193</v>
+        <v>-0.008062562109500239</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-196071.6561066329</v>
+        <v>-0.196071656106634</v>
       </c>
       <c r="E7">
-        <v>-23426.30285389436</v>
+        <v>-0.02342630285389449</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-137173814.8725679</v>
+        <v>-137.1738148725678</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75416772.74566512</v>
+        <v>-75.41677274566504</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-26122.54275204922</v>
+        <v>-0.02612254275204938</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-622229.3596988417</v>
+        <v>-0.6222293596988447</v>
       </c>
       <c r="E7">
-        <v>-75900.76076465023</v>
+        <v>-0.0759007607646507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-145192484.0641986</v>
+        <v>-145.1924840641983</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77899392.89188547</v>
+        <v>-77.89939289188534</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-76624.65414174389</v>
+        <v>-0.07662465414174446</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1775950.801266694</v>
+        <v>-1.775950801266702</v>
       </c>
       <c r="E7">
-        <v>-222637.9567215116</v>
+        <v>-0.2226379567215132</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-161836039.4252043</v>
+        <v>-161.8360394252041</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81780582.12634</v>
+        <v>-81.78058212633984</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-195176.8492054745</v>
+        <v>-0.1951768492054761</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4327945.65514197</v>
+        <v>-4.327945655141982</v>
       </c>
       <c r="E7">
-        <v>-567099.1326899377</v>
+        <v>-0.5670991326899425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-192451307.6574038</v>
+        <v>-192.4513076574036</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86823880.11552787</v>
+        <v>-86.82388011552773</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.68226116397926E-07</v>
+        <v>-2.682261163979259E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0001312383692456791</v>
+        <v>-1.312383692456791E-10</v>
       </c>
       <c r="E7">
-        <v>-7.793485681998991E-07</v>
+        <v>-7.793485681998987E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4884.180239792894</v>
+        <v>-0.004884180239792896</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2717.573618957031</v>
+        <v>-0.002717573618957031</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-397819.964055623</v>
+        <v>-0.3978199640556269</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8223024.249998032</v>
+        <v>-8.223024249998033</v>
       </c>
       <c r="E7">
-        <v>-1155891.98975735</v>
+        <v>-1.155891989757361</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-236413412.5677587</v>
+        <v>-236.4134125677585</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92690229.29798324</v>
+        <v>-92.69022929798307</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-589304.1411940312</v>
+        <v>-0.5893041411940351</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11343415.45685831</v>
+        <v>-11.34341545685828</v>
       </c>
       <c r="E7">
-        <v>-1712261.821635914</v>
+        <v>-1.712261821635925</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275211991.3819581</v>
+        <v>-275.2119913819578</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98989056.12133269</v>
+        <v>-98.98905612133254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-637116.5868353187</v>
+        <v>-0.637116586835318</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11892491.24760322</v>
+        <v>-11.8924912476032</v>
       </c>
       <c r="E7">
-        <v>-1851184.017405218</v>
+        <v>-1.851184017405216</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291815886.8463701</v>
+        <v>-291.8158868463697</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105346997.59607</v>
+        <v>-105.3469975960699</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-641264.7050515485</v>
+        <v>-0.6412647050515469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11655405.14301174</v>
+        <v>-11.65540514301174</v>
       </c>
       <c r="E7">
-        <v>-1863236.646865604</v>
+        <v>-1.8632366468656</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301186309.1220168</v>
+        <v>-301.1863091220168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111470430.9298852</v>
+        <v>-111.4704309298852</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-713391.2947980948</v>
+        <v>-0.7133912947980924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12380285.5352065</v>
+        <v>-12.38028553520647</v>
       </c>
       <c r="E7">
-        <v>-2072805.182558525</v>
+        <v>-2.072805182558518</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318502571.4909316</v>
+        <v>-318.5025714909311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117181095.3241957</v>
+        <v>-117.1810953241957</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-807338.5662741561</v>
+        <v>-0.8073385662741537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13532418.6549348</v>
+        <v>-13.53241865493478</v>
       </c>
       <c r="E7">
-        <v>-2345775.13975141</v>
+        <v>-2.345775139751403</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-338617068.5764307</v>
+        <v>-338.6170685764306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122414577.9031379</v>
+        <v>-122.414577903138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-832030.0993785834</v>
+        <v>-0.8320300993785855</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13873859.02832879</v>
+        <v>-13.87385902832885</v>
       </c>
       <c r="E7">
-        <v>-2417518.00815669</v>
+        <v>-2.417518008156697</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350289618.4297601</v>
+        <v>-350.2896184297608</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127185903.2282979</v>
+        <v>-127.185903228298</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-761239.9741952133</v>
+        <v>-0.7612399741952183</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13004889.4511176</v>
+        <v>-13.00488945111766</v>
       </c>
       <c r="E7">
-        <v>-2211832.657881166</v>
+        <v>-2.21183265788118</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350037625.375733</v>
+        <v>-350.0376253757339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131538686.9702832</v>
+        <v>-131.5386869702833</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-630120.2751038849</v>
+        <v>-0.6301202751038867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11102247.50687689</v>
+        <v>-11.10224750687687</v>
       </c>
       <c r="E7">
-        <v>-1830855.774936524</v>
+        <v>-1.83085577493653</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-340053201.6907896</v>
+        <v>-340.05320169079</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135499147.365494</v>
+        <v>-135.4991473654943</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-481007.7846474968</v>
+        <v>-0.4810077846474941</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8596169.44501248</v>
+        <v>-8.596169445012441</v>
       </c>
       <c r="E7">
-        <v>-1397599.656932328</v>
+        <v>-1.39759965693232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-324482588.0659379</v>
+        <v>-324.4825880659383</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139051534.1068925</v>
+        <v>-139.0515341068928</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-7.408766826815088E-06</v>
+        <v>-7.408766826815088E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00294820766767485</v>
+        <v>-2.948207667674851E-09</v>
       </c>
       <c r="E7">
-        <v>-2.152665779211161E-05</v>
+        <v>-2.152665779211161E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-12313.41702132989</v>
+        <v>-0.01231341702132989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6851.21414566045</v>
+        <v>-0.006851214145660449</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-355147.3320788246</v>
+        <v>-0.3551473320788213</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6370636.125741586</v>
+        <v>-6.370636125741583</v>
       </c>
       <c r="E7">
-        <v>-1031903.859596672</v>
+        <v>-1.031903859596662</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310695001.2364943</v>
+        <v>-310.6950012364945</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142140092.8904505</v>
+        <v>-142.1400928904507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-327269.8328865159</v>
+        <v>-0.327269832886517</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5910009.226172975</v>
+        <v>-5.910009226173023</v>
       </c>
       <c r="E7">
-        <v>-950903.9578261536</v>
+        <v>-0.9509039578261569</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311232713.0632393</v>
+        <v>-311.2327130632402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-144690946.4342958</v>
+        <v>-144.6909464342961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-398867.9725061835</v>
+        <v>-0.3988679725061866</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7213155.035152438</v>
+        <v>-7.213155035152433</v>
       </c>
       <c r="E7">
-        <v>-1158937.047026098</v>
+        <v>-1.158937047026107</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-326009272.5820946</v>
+        <v>-326.009272582095</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146640496.6844578</v>
+        <v>-146.640496684458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-477458.2024200055</v>
+        <v>-0.4774582024200066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8598474.99921304</v>
+        <v>-8.598474999212986</v>
       </c>
       <c r="E7">
-        <v>-1387286.11303193</v>
+        <v>-1.387286113031933</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-340419959.2591711</v>
+        <v>-340.4199592591712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-147957580.8210323</v>
+        <v>-147.9575808210326</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-516551.1091058447</v>
+        <v>-0.5165511091058435</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9264407.890750144</v>
+        <v>-9.264407890750086</v>
       </c>
       <c r="E7">
-        <v>-1500873.116644889</v>
+        <v>-1.500873116644885</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-347490035.2316063</v>
+        <v>-347.490035231606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148652437.4169281</v>
+        <v>-148.6524374169282</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-526920.8772548279</v>
+        <v>-0.5269208772548265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9441866.265965972</v>
+        <v>-9.441866265966038</v>
       </c>
       <c r="E7">
-        <v>-1531003.157925006</v>
+        <v>-1.531003157925002</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-349255827.3610216</v>
+        <v>-349.2558273610221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148772453.2451293</v>
+        <v>-148.7724532451293</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-528415.0463798511</v>
+        <v>-0.5284150463798503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9494483.260090511</v>
+        <v>-9.494483260090622</v>
       </c>
       <c r="E7">
-        <v>-1535344.564287195</v>
+        <v>-1.535344564287193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348988941.4188941</v>
+        <v>-348.9889414188946</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148389526.893286</v>
+        <v>-148.3895268932859</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-530717.7548676668</v>
+        <v>-0.5307177548676677</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9591389.187531784</v>
+        <v>-9.591389187531814</v>
       </c>
       <c r="E7">
-        <v>-1542035.234782154</v>
+        <v>-1.542035234782156</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348308055.0691932</v>
+        <v>-348.3080550691935</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-147584976.1879101</v>
+        <v>-147.58497618791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-544194.566486474</v>
+        <v>-0.5441945664864767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9908514.535620678</v>
+        <v>-9.908514535620624</v>
       </c>
       <c r="E7">
-        <v>-1581192.994585958</v>
+        <v>-1.581192994585966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348891621.7607154</v>
+        <v>-348.8916217607149</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146436500.7974587</v>
+        <v>-146.4365007974586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-579808.5452029569</v>
+        <v>-0.579808545202959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10597746.55013542</v>
+        <v>-10.59774655013539</v>
       </c>
       <c r="E7">
-        <v>-1684671.744878176</v>
+        <v>-1.684671744878183</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-352234209.6912799</v>
+        <v>-352.2342096912793</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-145009357.1052046</v>
+        <v>-145.0093571052044</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02800462292170924</v>
+        <v>-0.02800469205468666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01558168558096249</v>
+        <v>-0.01558172404678144</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.618071625053682</v>
+        <v>-3.353505205206688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.22316399050737</v>
+        <v>-47.22143250611841</v>
       </c>
       <c r="E7">
-        <v>-1.795847632211762</v>
+        <v>-9.743829255803778</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-354.7601414658102</v>
+        <v>-2745.84902787571</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-143.3520282402139</v>
+        <v>-1290.289884191306</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6212898907672202</v>
+        <v>-3.058700645030217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.07296436400275</v>
+        <v>-44.20351674488673</v>
       </c>
       <c r="E7">
-        <v>-1.805198514257163</v>
+        <v>-8.887255276514303</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350.4029049545038</v>
+        <v>-2714.552487930287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-141.4960084499395</v>
+        <v>-1289.140090462737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05895304157954327</v>
+        <v>-0.05895332683602661</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03279972182686263</v>
+        <v>-0.03279988054452029</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.117727150889386</v>
+        <v>-0.1177281636201304</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.06548737761002629</v>
+        <v>-0.06548794109678638</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2265047609492344</v>
+        <v>-0.2265079555459805</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1259151977505798</v>
+        <v>-0.1259169752348521</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4241813274655068</v>
+        <v>-0.4241904754194321</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2353597832748668</v>
+        <v>-0.2353648732269073</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0007975382208352163</v>
+        <v>-0.0007975382208352165</v>
       </c>
       <c r="E7">
         <v>-1.434710374259867E-05</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.7757057295230462</v>
+        <v>-0.7757298914322054</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.4282905346459978</v>
+        <v>-0.4283039784127493</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.382757057899104</v>
+        <v>-1.382816676735925</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.7545210416662816</v>
+        <v>-0.7545542137857092</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.407055192465227</v>
+        <v>-2.407194083466765</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.279346005165993</v>
+        <v>-1.279423284581964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0004118526891236127</v>
+        <v>-0.0004118526891236129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0528203494817675</v>
+        <v>-0.05282034948176757</v>
       </c>
       <c r="E7">
-        <v>-0.001196664992537794</v>
+        <v>-0.001196664992537795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.139438703852369</v>
+        <v>-4.139746877173769</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.082523245679769</v>
+        <v>-2.082694714342475</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001477475234552668</v>
+        <v>-0.001477475234552671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1781253368209257</v>
+        <v>-0.1781253368209267</v>
       </c>
       <c r="E7">
-        <v>-0.004292901168845075</v>
+        <v>-0.004292901168845083</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7.191988099125134</v>
+        <v>-7.192643901899546</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.256275698069417</v>
+        <v>-3.256640588917904</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.00485882693457359</v>
+        <v>-0.00485882693457363</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5487623583926293</v>
+        <v>-0.5487623583926406</v>
       </c>
       <c r="E7">
-        <v>-0.01411764024116599</v>
+        <v>-0.0141176402411661</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-12.94442861284238</v>
+        <v>-12.94577413053656</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.901874039114273</v>
+        <v>-4.902622689641863</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01452054611013645</v>
+        <v>-0.01452054611013689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.502790073592384</v>
+        <v>-1.502790073592502</v>
       </c>
       <c r="E7">
-        <v>-0.04219039880377196</v>
+        <v>-0.04219039880377325</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-24.15621087668281</v>
+        <v>-24.15888234392104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.124431167421067</v>
+        <v>-7.12591758069192</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03804551300282369</v>
+        <v>-0.03804551300282813</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.403025514288867</v>
+        <v>-3.403025514289961</v>
       </c>
       <c r="E7">
-        <v>-0.1105437325916208</v>
+        <v>-0.1105437325916337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-43.84960450410218</v>
+        <v>-43.854749968268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10.02570301166392</v>
+        <v>-10.02856596506338</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0801602470904576</v>
+        <v>-0.080160247090497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.645301715544901</v>
+        <v>-5.645301715553899</v>
       </c>
       <c r="E7">
-        <v>-0.2329108538551741</v>
+        <v>-0.2329108538552886</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-67.87640333875629</v>
+        <v>-67.88603311867796</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13.69455108291591</v>
+        <v>-13.69990912450877</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1164275365718997</v>
+        <v>-0.1164275365722129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.651668745998327</v>
+        <v>-6.651668746065043</v>
       </c>
       <c r="E7">
-        <v>-0.3382878414111543</v>
+        <v>-0.3382878414120643</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-84.20885570563046</v>
+        <v>-84.22638711088942</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-18.19459337230613</v>
+        <v>-18.20434790432217</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09968386667213577</v>
+        <v>-0.09968386667439066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.955978861089603</v>
+        <v>-6.955978861539795</v>
       </c>
       <c r="E7">
-        <v>-0.2896380106712061</v>
+        <v>-0.2896380106777578</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-95.65515336695881</v>
+        <v>-95.68622907544449</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-23.5495889099959</v>
+        <v>-23.56687953586219</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05859958903356335</v>
+        <v>-0.05859958904839359</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.588498833396164</v>
+        <v>-7.588498836184231</v>
       </c>
       <c r="E7">
-        <v>-0.1702649481851993</v>
+        <v>-0.1702649482282895</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-110.3981877084221</v>
+        <v>-110.4518659434196</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-29.73016716231326</v>
+        <v>-29.76003389954</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06638236165121729</v>
+        <v>-0.06638236174099632</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.299159737548717</v>
+        <v>-8.299159753510359</v>
       </c>
       <c r="E7">
-        <v>-0.1928783043253431</v>
+        <v>-0.192878304586202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-128.2193041914997</v>
+        <v>-128.3097364609411</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36.64667291223294</v>
+        <v>-36.6969896620077</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1126622745174255</v>
+        <v>-0.1126622750210012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.127039514194745</v>
+        <v>-9.127039599191589</v>
       </c>
       <c r="E7">
-        <v>-0.3273476256317986</v>
+        <v>-0.3273476270949711</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-148.8790950096448</v>
+        <v>-149.0278208921347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-44.14647728093001</v>
+        <v>-44.22922850447056</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.163240482312451</v>
+        <v>-0.163240484944439</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.837499763571135</v>
+        <v>-9.837500186759593</v>
       </c>
       <c r="E7">
-        <v>-0.4743059246838253</v>
+        <v>-0.4743059323312389</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-169.4636708170515</v>
+        <v>-169.7026656241756</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52.02473415310364</v>
+        <v>-52.15770990098848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.231124160293522</v>
+        <v>-0.2311241731729807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.48377495336604</v>
+        <v>-10.48377693162333</v>
       </c>
       <c r="E7">
-        <v>-0.6715464020436195</v>
+        <v>-0.6715464394657313</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-190.2822583702261</v>
+        <v>-190.6578652393324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60.06141681153636</v>
+        <v>-60.27039749432677</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3003154592644819</v>
+        <v>-0.3003155184950305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.03150148702959</v>
+        <v>-11.03151019644741</v>
       </c>
       <c r="E7">
-        <v>-0.8725862579274135</v>
+        <v>-0.8725864300256559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-210.3721363351435</v>
+        <v>-210.9499995387912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68.07638792088487</v>
+        <v>-68.39787666305892</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3355617208543591</v>
+        <v>-0.3355619775428844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.67307722131135</v>
+        <v>-10.67311340397542</v>
       </c>
       <c r="E7">
-        <v>-0.9749965819978637</v>
+        <v>-0.9749973278232043</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-222.8429839676496</v>
+        <v>-223.7140879890113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-76.00004509965659</v>
+        <v>-76.48457945709511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4167473939839385</v>
+        <v>-0.4167484439532581</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.51654118913208</v>
+        <v>-10.51668315740094</v>
       </c>
       <c r="E7">
-        <v>-1.210886878444671</v>
+        <v>-1.210889929199374</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-237.9663123270121</v>
+        <v>-239.2542748208311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.95828039213329</v>
+        <v>-84.67431466373374</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.669212176774297</v>
+        <v>-0.6692162327110815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.46131935535069</v>
+        <v>-10.46184540026386</v>
       </c>
       <c r="E7">
-        <v>-1.944439858411263</v>
+        <v>-1.944451643201529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258.7828510149558</v>
+        <v>-260.6528813766854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.36364021910934</v>
+        <v>-93.401934234766</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.010296356448707</v>
+        <v>-1.010311146889379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.28019620203283</v>
+        <v>-10.28203536343337</v>
       </c>
       <c r="E7">
-        <v>-2.935482306606453</v>
+        <v>-2.935525281201603</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283.031473372214</v>
+        <v>-285.7023274957836</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.9972513740284</v>
+        <v>-103.4756337450593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.353121238516288</v>
+        <v>-1.353172094206039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.29786377508533</v>
+        <v>-10.30392156970523</v>
       </c>
       <c r="E7">
-        <v>-3.931582479739087</v>
+        <v>-3.931730244280157</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-313.1455524226653</v>
+        <v>-316.9083915876695</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114.0613396180753</v>
+        <v>-116.129638651113</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.608826213842404</v>
+        <v>-1.608990782484136</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.998055257740802</v>
+        <v>-10.01680999198044</v>
       </c>
       <c r="E7">
-        <v>-4.674550051570733</v>
+        <v>-4.675028216549693</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-346.1121216729867</v>
+        <v>-351.366340060784</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-130.1794983471108</v>
+        <v>-133.0243618996032</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.458697747439023</v>
+        <v>-1.459197557944512</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.564705264131748</v>
+        <v>-9.61909656210867</v>
       </c>
       <c r="E7">
-        <v>-4.238341948837204</v>
+        <v>-4.239794181032397</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-379.1064128671715</v>
+        <v>-386.4347804153877</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-152.3255276710647</v>
+        <v>-156.1747982321509</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.364637985158581</v>
+        <v>-1.366056825609402</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.924447361117505</v>
+        <v>-9.071441350644852</v>
       </c>
       <c r="E7">
-        <v>-3.965045142236412</v>
+        <v>-3.96916767619657</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426.6711827006433</v>
+        <v>-436.9947745167742</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182.6657859549265</v>
+        <v>-187.7920769745585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.316449010722838</v>
+        <v>-1.320189967413689</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.514698298936803</v>
+        <v>-8.881876275674641</v>
       </c>
       <c r="E7">
-        <v>-3.825028917366641</v>
+        <v>-3.83589851231834</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-495.5624647479842</v>
+        <v>-510.423968822425</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-223.3152755383806</v>
+        <v>-230.0384294082047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.168909292149082</v>
+        <v>-1.177979592689031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.426641112787639</v>
+        <v>-10.26379217902905</v>
       </c>
       <c r="E7">
-        <v>-3.39634259119068</v>
+        <v>-3.422696944129469</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593.4390747009426</v>
+        <v>-615.4014745552294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-276.0481063327711</v>
+        <v>-284.736322662935</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.00703253710041</v>
+        <v>-1.026942530277744</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.88344626973173</v>
+        <v>-13.59390242416496</v>
       </c>
       <c r="E7">
-        <v>-2.925999065488406</v>
+        <v>-2.983848856120296</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-726.041468403241</v>
+        <v>-758.9387927911912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-342.0038165745847</v>
+        <v>-353.0734362251099</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9225727585724044</v>
+        <v>-0.9612163815723038</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.88178037876679</v>
+        <v>-19.93969201560864</v>
       </c>
       <c r="E7">
-        <v>-2.68059564113047</v>
+        <v>-2.792877221535372</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-903.3229012093659</v>
+        <v>-951.6494957838746</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-421.4248716935076</v>
+        <v>-435.3390931635016</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.275442801660678</v>
+        <v>-1.33959365505509</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-24.83982171025552</v>
+        <v>-29.51126636740657</v>
       </c>
       <c r="E7">
-        <v>-3.705882688248189</v>
+        <v>-3.892277199018217</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1135.515840232107</v>
+        <v>-1202.29703336424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-513.4517226288583</v>
+        <v>-530.718905379335</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.89883538328546</v>
+        <v>-1.986339038732516</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-34.94808799450432</v>
+        <v>-41.00836352471557</v>
       </c>
       <c r="E7">
-        <v>-5.517190708660882</v>
+        <v>-5.771438316987541</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1408.895583656451</v>
+        <v>-1493.427421326506</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-615.9924368913571</v>
+        <v>-637.1650870099203</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.601871865348735</v>
+        <v>-2.69725662625768</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-47.22398139517648</v>
+        <v>-54.15171513534162</v>
       </c>
       <c r="E7">
-        <v>-7.559909303875739</v>
+        <v>-7.837055980868935</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1712.924198602875</v>
+        <v>-1812.090187648503</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-725.6848686388774</v>
+        <v>-751.3608638008269</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.740626895972587</v>
+        <v>-3.828246703536224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-67.4848380414695</v>
+        <v>-75.01264882133518</v>
       </c>
       <c r="E7">
-        <v>-10.86863671105522</v>
+        <v>-11.12322180697244</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2090.615176371387</v>
+        <v>-2203.245094035482</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-837.9711890458658</v>
+        <v>-868.7992215735502</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.023788230467312</v>
+        <v>-5.11022549445269</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-90.00126918341221</v>
+        <v>-98.17957135135904</v>
       </c>
       <c r="E7">
-        <v>-14.59694610254022</v>
+        <v>-14.84809524055399</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2483.012565613155</v>
+        <v>-2610.91350911787</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-947.3079338513945</v>
+        <v>-983.9994558635453</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.486263397015731</v>
+        <v>-5.597872734779576</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97.84117381042681</v>
+        <v>-106.7379488876915</v>
       </c>
       <c r="E7">
-        <v>-15.94069802244203</v>
+        <v>-16.26498627129752</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2731.723250288474</v>
+        <v>-2877.459978328267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1047.529538130143</v>
+        <v>-1090.879591790983</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0001251627767560469</v>
+        <v>-0.0001251627769194821</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.96409859670192E-05</v>
+        <v>-6.96409860579551E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.481913911981946</v>
+        <v>-5.64125168247311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-97.44426581946647</v>
+        <v>-107.0418161189331</v>
       </c>
       <c r="E7">
-        <v>-15.92806030849005</v>
+        <v>-16.39102664808476</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2881.176181240118</v>
+        <v>-3046.801871007717</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1132.360766369772</v>
+        <v>-1183.279880120348</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.401163350250136</v>
+        <v>-5.620010435679155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-95.66236842342961</v>
+        <v>-105.8519282068173</v>
       </c>
       <c r="E7">
-        <v>-15.69343425673877</v>
+        <v>-16.32930881278236</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2980.617359647617</v>
+        <v>-3167.545257065441</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1196.035513918652</v>
+        <v>-1255.594252994135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.234138101290002</v>
+        <v>-5.52090013579362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-92.2027354796263</v>
+        <v>-102.7949647596749</v>
       </c>
       <c r="E7">
-        <v>-15.20813144440115</v>
+        <v>-16.04133733801715</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3019.370005869383</v>
+        <v>-3228.733233151825</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1233.938515459163</v>
+        <v>-1303.425223967953</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.049461445062114</v>
+        <v>-5.415284988602882</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88.07091947132147</v>
+        <v>-98.78888622692294</v>
       </c>
       <c r="E7">
-        <v>-14.67154131088251</v>
+        <v>-15.73446560289793</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3001.227034937526</v>
+        <v>-3234.101032287054</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1243.160096755431</v>
+        <v>-1324.150831916344</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.965769839097157</v>
+        <v>-5.443592504237675</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85.26436963993798</v>
+        <v>-95.86400619232964</v>
       </c>
       <c r="E7">
-        <v>-14.42836986227392</v>
+        <v>-15.81671494563733</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2942.166687911923</v>
+        <v>-3201.054516519532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1222.856860462274</v>
+        <v>-1317.294531829699</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.782172531912372</v>
+        <v>-5.44398995124041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80.64659903465022</v>
+        <v>-91.10449197334015</v>
       </c>
       <c r="E7">
-        <v>-13.8949158481706</v>
+        <v>-15.81786975396352</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2816.735329140398</v>
+        <v>-3107.509646551132</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1174.347457298762</v>
+        <v>-1284.624854563425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.140161804159114</v>
+        <v>-5.062298951548946</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-68.89329904305747</v>
+        <v>-79.24054966044069</v>
       </c>
       <c r="E7">
-        <v>-12.02951158343008</v>
+        <v>-14.70884152770751</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2583.21059524965</v>
+        <v>-2913.198520865805</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1100.932906971676</v>
+        <v>-1229.971724559608</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.783235035029221</v>
+        <v>-3.980250502841793</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-45.88668410030787</v>
+        <v>-56.11349963104421</v>
       </c>
       <c r="E7">
-        <v>-8.086871884972762</v>
+        <v>-11.5648788124148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2214.010997007765</v>
+        <v>-2589.811056857368</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1007.493872589768</v>
+        <v>-1158.809260412581</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.204764289549926</v>
+        <v>-2.604216446171362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20.08880208732106</v>
+        <v>-30.17146659356661</v>
       </c>
       <c r="E7">
-        <v>-3.500521637073383</v>
+        <v>-7.566721637184968</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1793.679164894532</v>
+        <v>-2220.816136557963</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-899.9581339385679</v>
+        <v>-1077.696829460357</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5535923376344312</v>
+        <v>-2.014563966825844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.71684397222509</v>
+        <v>-20.62903763606754</v>
       </c>
       <c r="E7">
-        <v>-1.608498834847854</v>
+        <v>-5.853447696210131</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1502.221126720673</v>
+        <v>-1985.676881303714</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-784.7341144856334</v>
+        <v>-993.6740866094691</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0005242381276323807</v>
+        <v>-0.0005242381369359549</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0002916878405637394</v>
+        <v>-0.0002916878457402791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4759505396213873</v>
+        <v>-1.868972624635292</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.07125988251325</v>
+        <v>-19.97076844154818</v>
       </c>
       <c r="E7">
-        <v>-1.38290549991636</v>
+        <v>-5.430422505366389</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1286.125653685445</v>
+        <v>-1833.550015758843</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-668.1733971555414</v>
+        <v>-913.6729920692873</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4051690131292323</v>
+        <v>-1.69684950135753</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.398172830023061</v>
+        <v>-19.85507594269856</v>
       </c>
       <c r="E7">
-        <v>-1.177245133701958</v>
+        <v>-4.930307484942317</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1078.032748219382</v>
+        <v>-1703.262921101158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-556.0849065772043</v>
+        <v>-843.9713475619806</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2686199990105808</v>
+        <v>-1.456982274743621</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.856755695492683</v>
+        <v>-20.08740671891293</v>
       </c>
       <c r="E7">
-        <v>-0.7804930199569977</v>
+        <v>-4.233357530440885</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-878.7204110196686</v>
+        <v>-1601.606969641791</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-453.304662919075</v>
+        <v>-789.6955962989555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1806910443694366</v>
+        <v>-1.295617239209583</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.489511096083875</v>
+        <v>-22.38349682585861</v>
       </c>
       <c r="E7">
-        <v>-0.5250096769359693</v>
+        <v>-3.764500839340721</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-704.8933735365806</v>
+        <v>-1551.065856284781</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-363.3400118411571</v>
+        <v>-754.3973074098602</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2932390470267853</v>
+        <v>-1.47170334815111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.77644224936734</v>
+        <v>-29.65890366664342</v>
       </c>
       <c r="E7">
-        <v>-0.8520252781857565</v>
+        <v>-4.276130574455253</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-581.8867298442866</v>
+        <v>-1582.282577020401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-288.1407720119517</v>
+        <v>-739.7626721394287</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5349733624026006</v>
+        <v>-1.985852112809182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.41940837221838</v>
+        <v>-40.80798470148564</v>
       </c>
       <c r="E7">
-        <v>-1.554400181505877</v>
+        <v>-5.770023521790614</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-499.1180283399241</v>
+        <v>-1686.711922477928</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-228.0664810691439</v>
+        <v>-745.531883361572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7506791235842114</v>
+        <v>-2.719601564810039</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.15950775422845</v>
+        <v>-54.51129585212061</v>
       </c>
       <c r="E7">
-        <v>-2.18114741397879</v>
+        <v>-7.901980664942058</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-441.7687698480594</v>
+        <v>-1848.182464479065</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182.0907846037675</v>
+        <v>-769.6771454383844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9051988504780638</v>
+        <v>-3.600730898219744</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.84234462860288</v>
+        <v>-70.61671251702268</v>
       </c>
       <c r="E7">
-        <v>-2.630114611992825</v>
+        <v>-10.46215971690664</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-404.2628918171854</v>
+        <v>-2057.75396462089</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.2137030383495</v>
+        <v>-808.8168147208667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9509904026639443</v>
+        <v>-4.526650196534422</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.71704651047711</v>
+        <v>-87.42724321095795</v>
       </c>
       <c r="E7">
-        <v>-2.763164969321836</v>
+        <v>-13.15247894868365</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-368.2162915414178</v>
+        <v>-2292.999842274625</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-123.9777679323042</v>
+        <v>-858.7664933443456</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7335114700564329</v>
+        <v>-5.242854593457078</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.78147212401743</v>
+        <v>-100.1766009449538</v>
       </c>
       <c r="E7">
-        <v>-2.131265671007957</v>
+        <v>-15.23345778391411</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-303.5386527791267</v>
+        <v>-2504.897296332239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.9500674235087</v>
+        <v>-915.0910976993379</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001720085403172877</v>
+        <v>-0.001720085598414953</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0009570612352172546</v>
+        <v>-0.0009570613438505962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3350450096275313</v>
+        <v>-5.5665840712224</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.699647583087429</v>
+        <v>-105.5259596383331</v>
       </c>
       <c r="E7">
-        <v>-0.9734952436486788</v>
+        <v>-16.17407500780221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220.6816760168313</v>
+        <v>-2656.95235367306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.06003037573619</v>
+        <v>-973.5461667553168</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07380127556004543</v>
+        <v>-5.617300320614349</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.159140498352817</v>
+        <v>-105.5809105553396</v>
       </c>
       <c r="E7">
-        <v>-0.2144344451295659</v>
+        <v>-16.32143439576519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-166.1911648935938</v>
+        <v>-2760.699001298786</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86.7539530509484</v>
+        <v>-1030.363949045861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.005457921297122058</v>
+        <v>-5.569031500551166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.05743309027313547</v>
+        <v>-103.3403151188634</v>
       </c>
       <c r="E7">
-        <v>-0.01585834819287083</v>
+        <v>-16.18118617418958</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146.1252325279346</v>
+        <v>-2836.661981623714</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-80.99711011896369</v>
+        <v>-1082.405827537948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0002637904213820349</v>
+        <v>-5.490343899730301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.004267774216657092</v>
+        <v>-99.83291652756088</v>
       </c>
       <c r="E7">
-        <v>-0.0007664603654923088</v>
+        <v>-15.95255419062894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138.7634641179521</v>
+        <v>-2889.648189869295</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77.1875175602557</v>
+        <v>-1127.232627701771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0005920242039029196</v>
+        <v>-5.401523299989046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01498743888733571</v>
+        <v>-95.23948567033371</v>
       </c>
       <c r="E7">
-        <v>-0.001720165142185212</v>
+        <v>-15.6944801143063</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-134.9855850113652</v>
+        <v>-2918.398521725537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75.03741150950678</v>
+        <v>-1163.134194577692</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.002282694092840318</v>
+        <v>-5.257607407598347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.05660630451190192</v>
+        <v>-88.82036050064896</v>
       </c>
       <c r="E7">
-        <v>-0.006632517358057029</v>
+        <v>-15.27632305271165</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-134.279162548466</v>
+        <v>-2914.652274823917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74.4520704753222</v>
+        <v>-1189.132573559318</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.008062562109500239</v>
+        <v>-4.928995630429342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.196071656106634</v>
+        <v>-78.80357339205239</v>
       </c>
       <c r="E7">
-        <v>-0.02342630285389449</v>
+        <v>-14.32151998778434</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-137.1738148725678</v>
+        <v>-2861.811122700416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75.41677274566504</v>
+        <v>-1204.955552654664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02612254275204938</v>
+        <v>-4.339344542909362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.6222293596988447</v>
+        <v>-64.77908200745902</v>
       </c>
       <c r="E7">
-        <v>-0.0759007607646507</v>
+        <v>-12.60825009084987</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-145.1924840641983</v>
+        <v>-2755.697190533532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77.89939289188534</v>
+        <v>-1210.977271895891</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07662465414174446</v>
+        <v>-3.634394728932197</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.775950801266702</v>
+        <v>-50.24835774966644</v>
       </c>
       <c r="E7">
-        <v>-0.2226379567215132</v>
+        <v>-10.55997218430617</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-161.8360394252041</v>
+        <v>-2627.149232347514</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.78058212633984</v>
+        <v>-1208.13202737648</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1951768492054761</v>
+        <v>-3.071368011305876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.327945655141982</v>
+        <v>-40.15853278585473</v>
       </c>
       <c r="E7">
-        <v>-0.5670991326899425</v>
+        <v>-8.924061139800012</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-192.4513076574036</v>
+        <v>-2521.114111941029</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86.82388011552773</v>
+        <v>-1197.813888026175</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.004884180239792896</v>
+        <v>-0.004884182271765402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002717573618957031</v>
+        <v>-0.002717574749553303</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3978199640556269</v>
+        <v>-2.701447178614288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.223024249998033</v>
+        <v>-35.13897894610567</v>
       </c>
       <c r="E7">
-        <v>-1.155891989757361</v>
+        <v>-7.849231905506506</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-236.4134125677585</v>
+        <v>-2446.583802059171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.69022929798307</v>
+        <v>-1181.773054698975</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5893041411940351</v>
+        <v>-2.476594855153268</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.34341545685828</v>
+        <v>-33.86752244212533</v>
       </c>
       <c r="E7">
-        <v>-1.712261821635925</v>
+        <v>-7.195908736610484</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-275.2119913819578</v>
+        <v>-2396.317128153267</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98.98905612133254</v>
+        <v>-1162.012707963758</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.637116586835318</v>
+        <v>-2.304164089723907</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.8924912476032</v>
+        <v>-34.44927220542596</v>
       </c>
       <c r="E7">
-        <v>-1.851184017405216</v>
+        <v>-6.694899841743507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291.8158868463697</v>
+        <v>-2358.062952818255</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.3469975960699</v>
+        <v>-1140.682117393369</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6412647050515469</v>
+        <v>-2.205332561464816</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.65540514301174</v>
+        <v>-36.87139754602607</v>
       </c>
       <c r="E7">
-        <v>-1.8632366468656</v>
+        <v>-6.407738356217389</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301.1863091220168</v>
+        <v>-2336.151722555222</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111.4704309298852</v>
+        <v>-1119.957647119241</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7133912947980924</v>
+        <v>-2.310186160060061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.38028553520647</v>
+        <v>-42.61202287449151</v>
       </c>
       <c r="E7">
-        <v>-2.072805182558518</v>
+        <v>-6.712397361959316</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-318.5025714909311</v>
+        <v>-2348.266682431292</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.1810953241957</v>
+        <v>-1101.905374801205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8073385662741537</v>
+        <v>-2.685746515154451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.53241865493478</v>
+        <v>-52.04899356064463</v>
       </c>
       <c r="E7">
-        <v>-2.345775139751403</v>
+        <v>-7.803612598365438</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-338.6170685764306</v>
+        <v>-2402.036074409324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122.414577903138</v>
+        <v>-1088.327696913627</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8320300993785855</v>
+        <v>-3.291346287912406</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.87385902832885</v>
+        <v>-64.28858272492921</v>
       </c>
       <c r="E7">
-        <v>-2.417518008156697</v>
+        <v>-9.563222445979614</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350.2896184297608</v>
+        <v>-2492.421355968047</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.185903228298</v>
+        <v>-1080.609074224586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7612399741952183</v>
+        <v>-4.028578269014366</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.00488945111766</v>
+        <v>-78.04310473520435</v>
       </c>
       <c r="E7">
-        <v>-2.21183265788118</v>
+        <v>-11.7052983057762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-350.0376253757339</v>
+        <v>-2609.118600014198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-131.5386869702833</v>
+        <v>-1079.586827934264</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6301202751038867</v>
+        <v>-4.791369355607485</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.10224750687687</v>
+        <v>-91.88904029155147</v>
       </c>
       <c r="E7">
-        <v>-1.83085577493653</v>
+        <v>-13.92163782243257</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-340.05320169079</v>
+        <v>-2739.524868065142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135.4991473654943</v>
+        <v>-1085.475616598208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4810077846474941</v>
+        <v>-5.463750325145301</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.596169445012441</v>
+        <v>-103.8578448712119</v>
       </c>
       <c r="E7">
-        <v>-1.39759965693232</v>
+        <v>-15.87528481598911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-324.4825880659383</v>
+        <v>-2865.685771908686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139.0515341068928</v>
+        <v>-1097.865640026006</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01231341702132989</v>
+        <v>-0.01231343070983907</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.006851214145660449</v>
+        <v>-0.006851221761992564</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3551473320788213</v>
+        <v>-5.913329627763846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.370636125741583</v>
+        <v>-111.4951115954499</v>
       </c>
       <c r="E7">
-        <v>-1.031903859596662</v>
+        <v>-17.1815669576888</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310.6950012364945</v>
+        <v>-2964.70482439132</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.1400928904507</v>
+        <v>-1115.797387283995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.327269832886517</v>
+        <v>-6.101622050403885</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.910009226173023</v>
+        <v>-114.0240754025304</v>
       </c>
       <c r="E7">
-        <v>-0.9509039578261569</v>
+        <v>-17.72866293759592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311.2327130632402</v>
+        <v>-3027.495929173247</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-144.6909464342961</v>
+        <v>-1137.89748546559</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3988679725061866</v>
+        <v>-6.103577458959804</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.213155035152433</v>
+        <v>-112.697243646916</v>
       </c>
       <c r="E7">
-        <v>-1.158937047026107</v>
+        <v>-17.73434450536705</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-326.009272582095</v>
+        <v>-3062.134762514094</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146.640496684458</v>
+        <v>-1162.548165120302</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4774582024200066</v>
+        <v>-6.015896294897645</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.598474999212986</v>
+        <v>-109.1376146422297</v>
       </c>
       <c r="E7">
-        <v>-1.387286113031933</v>
+        <v>-17.47958113412036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-340.4199592591712</v>
+        <v>-3079.808705306824</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-147.9575808210326</v>
+        <v>-1188.061012379011</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5165511091058435</v>
+        <v>-5.889665136335978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.264407890750086</v>
+        <v>-104.1922625572108</v>
       </c>
       <c r="E7">
-        <v>-1.500873116644885</v>
+        <v>-17.11280822621566</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-347.490035231606</v>
+        <v>-3085.072656729906</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.6524374169282</v>
+        <v>-1212.832072792542</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5269208772548265</v>
+        <v>-5.700066035174579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.441866265966038</v>
+        <v>-97.51201331522421</v>
       </c>
       <c r="E7">
-        <v>-1.531003157925002</v>
+        <v>-16.56191560618865</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-349.2558273610221</v>
+        <v>-3072.260229335724</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.7724532451293</v>
+        <v>-1235.465070748281</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5284150463798503</v>
+        <v>-5.38917606412947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.494483260090622</v>
+        <v>-88.42717647879722</v>
       </c>
       <c r="E7">
-        <v>-1.535344564287193</v>
+        <v>-15.65860441093478</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348.9889414188946</v>
+        <v>-3033.086499480813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.3895268932859</v>
+        <v>-1254.858240522465</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5307177548676677</v>
+        <v>-4.92111895713467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.591389187531814</v>
+        <v>-76.91949843235794</v>
       </c>
       <c r="E7">
-        <v>-1.542035234782156</v>
+        <v>-14.29863379707026</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348.3080550691935</v>
+        <v>-2965.190060608347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-147.58497618791</v>
+        <v>-1270.255459203029</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5441945664864767</v>
+        <v>-4.343932610597451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.908514535620624</v>
+        <v>-64.52469672543617</v>
       </c>
       <c r="E7">
-        <v>-1.581192994585966</v>
+        <v>-12.62158102234727</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-348.8916217607149</v>
+        <v>-2880.271053059154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-146.4365007974586</v>
+        <v>-1281.264810296484</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.579808545202959</v>
+        <v>-3.787620112714303</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.59774655013539</v>
+        <v>-54.00707711948834</v>
       </c>
       <c r="E7">
-        <v>-1.684671744878183</v>
+        <v>-11.00517858354175</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-352.2342096912793</v>
+        <v>-2801.644373976458</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-145.0093571052044</v>
+        <v>-1287.848650180268</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05895332683602661</v>
+        <v>-0.05895332683602662</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.139746877173769</v>
+        <v>-4.13974687717377</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-24.15888234392104</v>
+        <v>-24.15888234392103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-67.88603311867796</v>
+        <v>-67.88603311867797</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-95.68622907544449</v>
+        <v>-95.68622907544447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-260.6528813766854</v>
+        <v>-260.6528813766855</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-510.423968822425</v>
+        <v>-510.4239688224249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-951.6494957838746</v>
+        <v>-951.6494957838745</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2610.91350911787</v>
+        <v>-2610.913509117869</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2220.816136557963</v>
+        <v>-2220.816136557962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0005242381369359549</v>
+        <v>-0.0005242381369359548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001720085598414953</v>
+        <v>-0.001720085598414954</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2336.151722555222</v>
+        <v>-2336.151722555221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2739.524868065142</v>
+        <v>-2739.524868065141</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2865.685771908686</v>
+        <v>-2865.685771908685</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b3.xlsx
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.13974687717377</v>
+        <v>-4.139746877173769</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-24.15888234392103</v>
+        <v>-24.15888234392104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-67.88603311867797</v>
+        <v>-67.88603311867796</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-95.68622907544447</v>
+        <v>-95.68622907544449</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-260.6528813766855</v>
+        <v>-260.6528813766854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2610.913509117869</v>
+        <v>-2610.91350911787</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2220.816136557962</v>
+        <v>-2220.816136557963</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2336.151722555221</v>
+        <v>-2336.151722555222</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2739.524868065141</v>
+        <v>-2739.524868065142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2865.685771908685</v>
+        <v>-2865.685771908686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2964.70482439132</v>
+        <v>-2964.704824391319</v>
       </c>
     </row>
     <row r="8" spans="1:7">
